--- a/data/field_workRaw/2018_07_31_HAZAMESA.xlsx
+++ b/data/field_workRaw/2018_07_31_HAZAMESA.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="182">
   <si>
     <t>date</t>
   </si>
@@ -19,16 +19,19 @@
     <t>fieldworkers</t>
   </si>
   <si>
-    <t>nBerberis</t>
-  </si>
-  <si>
-    <t>nB secos // muertos</t>
-  </si>
-  <si>
-    <t>nJuniperus</t>
-  </si>
-  <si>
-    <t>nJ secos // muertos</t>
+    <t>Berb vivos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Berb muertos </t>
+  </si>
+  <si>
+    <t>J vivos</t>
+  </si>
+  <si>
+    <t>J muertos</t>
+  </si>
+  <si>
+    <t>Humedad</t>
   </si>
   <si>
     <t>obs</t>
@@ -67,150 +70,147 @@
     <t>E109</t>
   </si>
   <si>
+    <t>E110</t>
+  </si>
+  <si>
+    <t>Sensor P4 // 93 % bat // 25 % memoria</t>
+  </si>
+  <si>
+    <t>G101</t>
+  </si>
+  <si>
+    <t>G102</t>
+  </si>
+  <si>
+    <t>G103</t>
+  </si>
+  <si>
+    <t>Se arreglo la jaula</t>
+  </si>
+  <si>
+    <t>G104</t>
+  </si>
+  <si>
+    <t>G105</t>
+  </si>
+  <si>
+    <t>G106</t>
+  </si>
+  <si>
+    <t>G107</t>
+  </si>
+  <si>
+    <t>G108</t>
+  </si>
+  <si>
+    <t>G109</t>
+  </si>
+  <si>
+    <t>G110</t>
+  </si>
+  <si>
+    <t>Sensor P3.3 // 86 % bat // 25 % memoria</t>
+  </si>
+  <si>
+    <t>P101</t>
+  </si>
+  <si>
+    <t>P102</t>
+  </si>
+  <si>
+    <t>P103</t>
+  </si>
+  <si>
+    <t>Se arreglo la jaula // Estaba movida de sitio</t>
+  </si>
+  <si>
+    <t>P104</t>
+  </si>
+  <si>
+    <t>P105</t>
+  </si>
+  <si>
+    <t>P106</t>
+  </si>
+  <si>
+    <t>P107</t>
+  </si>
+  <si>
+    <t>P108</t>
+  </si>
+  <si>
+    <t>P109</t>
+  </si>
+  <si>
+    <t>P110</t>
+  </si>
+  <si>
+    <t>Sensor P27 // 60 % bat // 25 % memoria</t>
+  </si>
+  <si>
+    <t>R101</t>
+  </si>
+  <si>
+    <t>R102</t>
+  </si>
+  <si>
+    <t>R103</t>
+  </si>
+  <si>
+    <t>R104</t>
+  </si>
+  <si>
+    <t>R105</t>
+  </si>
+  <si>
+    <t>R106</t>
+  </si>
+  <si>
+    <t>R107</t>
+  </si>
+  <si>
+    <t>Eliminar malas hierbas</t>
+  </si>
+  <si>
+    <t>R108</t>
+  </si>
+  <si>
+    <t>R109</t>
+  </si>
+  <si>
+    <t>Ojo esta jaula está cerca de roca, aunque no parece que sea bajo roca. Considerar la posibilidad de no tenerla en cuenta, porque parece mas bien un pastizal</t>
+  </si>
+  <si>
+    <t>R110</t>
+  </si>
+  <si>
+    <t>Sensor P21 // 80 % bat // 25 % memoria</t>
+  </si>
+  <si>
+    <t>B101</t>
+  </si>
+  <si>
+    <t>Sensor P66 // 1 % bat // 25 % memoria</t>
+  </si>
+  <si>
+    <t>B102</t>
+  </si>
+  <si>
+    <t>Se arreglo la jaula // Eliminar malas hierbas</t>
+  </si>
+  <si>
+    <t>B103</t>
+  </si>
+  <si>
+    <t>Estaba marcada como P68 // Se hizo el nuevo etiquetado</t>
+  </si>
+  <si>
+    <t>B104</t>
+  </si>
+  <si>
     <t>NA</t>
   </si>
   <si>
-    <t xml:space="preserve">No lo encontré </t>
-  </si>
-  <si>
-    <t>E110</t>
-  </si>
-  <si>
-    <t>Sensor P4 // 93 % bat // 25 % memoria</t>
-  </si>
-  <si>
-    <t>G101</t>
-  </si>
-  <si>
-    <t>G102</t>
-  </si>
-  <si>
-    <t>G103</t>
-  </si>
-  <si>
-    <t>Se arreglo la jaula</t>
-  </si>
-  <si>
-    <t>G104</t>
-  </si>
-  <si>
-    <t>G105</t>
-  </si>
-  <si>
-    <t>G106</t>
-  </si>
-  <si>
-    <t>G107</t>
-  </si>
-  <si>
-    <t>G108</t>
-  </si>
-  <si>
-    <t>G109</t>
-  </si>
-  <si>
-    <t>G110</t>
-  </si>
-  <si>
-    <t>Sensor P3.3 // 86 % bat // 25 % memoria</t>
-  </si>
-  <si>
-    <t>P101</t>
-  </si>
-  <si>
-    <t>P102</t>
-  </si>
-  <si>
-    <t>P103</t>
-  </si>
-  <si>
-    <t>Se arreglo la jaula // Estaba movida de sitio</t>
-  </si>
-  <si>
-    <t>P104</t>
-  </si>
-  <si>
-    <t>P105</t>
-  </si>
-  <si>
-    <t>P106</t>
-  </si>
-  <si>
-    <t>P107</t>
-  </si>
-  <si>
-    <t>P108</t>
-  </si>
-  <si>
-    <t>P109</t>
-  </si>
-  <si>
-    <t>P110</t>
-  </si>
-  <si>
-    <t>Sensor P27 // 60 % bat // 25 % memoria</t>
-  </si>
-  <si>
-    <t>R101</t>
-  </si>
-  <si>
-    <t>R102</t>
-  </si>
-  <si>
-    <t>R103</t>
-  </si>
-  <si>
-    <t>R104</t>
-  </si>
-  <si>
-    <t>R105</t>
-  </si>
-  <si>
-    <t>R106</t>
-  </si>
-  <si>
-    <t>R107</t>
-  </si>
-  <si>
-    <t>Eliminar malas hierbas</t>
-  </si>
-  <si>
-    <t>R108</t>
-  </si>
-  <si>
-    <t>R109</t>
-  </si>
-  <si>
-    <t>Ojo esta jaula está cerca de roca, aunque no parece que sea bajo roca. Considerar la posibilidad de no tenerla en cuenta, porque parece mas bien un pastizal</t>
-  </si>
-  <si>
-    <t>R110</t>
-  </si>
-  <si>
-    <t>Sensor P21 // 80 % bat // 25 % memoria</t>
-  </si>
-  <si>
-    <t>B101</t>
-  </si>
-  <si>
-    <t>Sensor P66 // 1 % bat // 25 % memoria</t>
-  </si>
-  <si>
-    <t>B102</t>
-  </si>
-  <si>
-    <t>Se arreglo la jaula // Eliminar malas hierbas</t>
-  </si>
-  <si>
-    <t>B103</t>
-  </si>
-  <si>
-    <t>Estaba marcada como P68 // Se hizo el nuevo etiquetado</t>
-  </si>
-  <si>
-    <t>B104</t>
-  </si>
-  <si>
     <t xml:space="preserve">No se encuentra // Igual que en la visita anterior </t>
   </si>
   <si>
@@ -332,6 +332,231 @@
   </si>
   <si>
     <t>G210</t>
+  </si>
+  <si>
+    <t>AJPL, MSM</t>
+  </si>
+  <si>
+    <t>E201</t>
+  </si>
+  <si>
+    <t>E202</t>
+  </si>
+  <si>
+    <t>E203</t>
+  </si>
+  <si>
+    <t>E204</t>
+  </si>
+  <si>
+    <t>E205</t>
+  </si>
+  <si>
+    <t>E206</t>
+  </si>
+  <si>
+    <t>E207</t>
+  </si>
+  <si>
+    <t>E208</t>
+  </si>
+  <si>
+    <t>E209</t>
+  </si>
+  <si>
+    <t>E210</t>
+  </si>
+  <si>
+    <t>B201</t>
+  </si>
+  <si>
+    <t>B202</t>
+  </si>
+  <si>
+    <t>B203</t>
+  </si>
+  <si>
+    <t>B204</t>
+  </si>
+  <si>
+    <t>B205</t>
+  </si>
+  <si>
+    <t>B206</t>
+  </si>
+  <si>
+    <t>B207</t>
+  </si>
+  <si>
+    <t>B208</t>
+  </si>
+  <si>
+    <t>B209</t>
+  </si>
+  <si>
+    <t>B210</t>
+  </si>
+  <si>
+    <t>R301</t>
+  </si>
+  <si>
+    <t>R302</t>
+  </si>
+  <si>
+    <t>R303</t>
+  </si>
+  <si>
+    <t>R304</t>
+  </si>
+  <si>
+    <t>R305</t>
+  </si>
+  <si>
+    <t>R306</t>
+  </si>
+  <si>
+    <t>R307</t>
+  </si>
+  <si>
+    <t>R308</t>
+  </si>
+  <si>
+    <t>R309</t>
+  </si>
+  <si>
+    <t>R310</t>
+  </si>
+  <si>
+    <t>Sensor LANP32 // 73 % bat // 25 % memoria</t>
+  </si>
+  <si>
+    <t>G301</t>
+  </si>
+  <si>
+    <t>G302</t>
+  </si>
+  <si>
+    <t>G303</t>
+  </si>
+  <si>
+    <t>G304</t>
+  </si>
+  <si>
+    <t>G305</t>
+  </si>
+  <si>
+    <t>G306</t>
+  </si>
+  <si>
+    <t>G307</t>
+  </si>
+  <si>
+    <t>Sensor 3-1 // 80 % bat // 25 % memoria</t>
+  </si>
+  <si>
+    <t>G308</t>
+  </si>
+  <si>
+    <t>G309</t>
+  </si>
+  <si>
+    <t>G310</t>
+  </si>
+  <si>
+    <t>E301</t>
+  </si>
+  <si>
+    <t>E302</t>
+  </si>
+  <si>
+    <t>E303</t>
+  </si>
+  <si>
+    <t>E304</t>
+  </si>
+  <si>
+    <t>E305</t>
+  </si>
+  <si>
+    <t>E306</t>
+  </si>
+  <si>
+    <t>E307</t>
+  </si>
+  <si>
+    <t>E308</t>
+  </si>
+  <si>
+    <t>Sensor 24 // 60 % bat // 25 % memoria</t>
+  </si>
+  <si>
+    <t>E309</t>
+  </si>
+  <si>
+    <t>E310</t>
+  </si>
+  <si>
+    <t>B301</t>
+  </si>
+  <si>
+    <t>B302</t>
+  </si>
+  <si>
+    <t>B303</t>
+  </si>
+  <si>
+    <t>B304</t>
+  </si>
+  <si>
+    <t>B305</t>
+  </si>
+  <si>
+    <t>B306</t>
+  </si>
+  <si>
+    <t>B307</t>
+  </si>
+  <si>
+    <t>B308</t>
+  </si>
+  <si>
+    <t>B309</t>
+  </si>
+  <si>
+    <t>B310</t>
+  </si>
+  <si>
+    <t>P301</t>
+  </si>
+  <si>
+    <t>P302</t>
+  </si>
+  <si>
+    <t>P303</t>
+  </si>
+  <si>
+    <t>P304</t>
+  </si>
+  <si>
+    <t>P305</t>
+  </si>
+  <si>
+    <t>P306</t>
+  </si>
+  <si>
+    <t>P307</t>
+  </si>
+  <si>
+    <t>P308</t>
+  </si>
+  <si>
+    <t>P309</t>
+  </si>
+  <si>
+    <t>Sensor P35 // 39 % bat // 25 % memoria // Se arreglo la jaula</t>
+  </si>
+  <si>
+    <t>P310</t>
   </si>
 </sst>
 </file>
@@ -376,7 +601,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -385,6 +610,12 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
@@ -396,7 +627,13 @@
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -432,31 +669,34 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="3">
+      <c r="A2" s="5">
         <v>43312.0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>8</v>
+        <v>8</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="D2" s="2">
         <v>1.0</v>
@@ -470,16 +710,19 @@
       <c r="G2" s="2">
         <v>0.0</v>
       </c>
+      <c r="H2" s="4">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="3">
+      <c r="A3" s="5">
         <v>43312.0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="D3" s="2">
         <v>14.0</v>
@@ -493,16 +736,19 @@
       <c r="G3" s="2">
         <v>0.0</v>
       </c>
+      <c r="H3" s="4">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="3">
+      <c r="A4" s="5">
         <v>43312.0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="D4" s="2">
         <v>2.0</v>
@@ -516,16 +762,19 @@
       <c r="G4" s="2">
         <v>0.0</v>
       </c>
+      <c r="H4" s="4">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="3">
+      <c r="A5" s="5">
         <v>43312.0</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="D5" s="2">
         <v>1.0</v>
@@ -539,16 +788,19 @@
       <c r="G5" s="2">
         <v>0.0</v>
       </c>
+      <c r="H5" s="4">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="3">
+      <c r="A6" s="5">
         <v>43312.0</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="D6" s="2">
         <v>1.0</v>
@@ -562,16 +814,19 @@
       <c r="G6" s="2">
         <v>0.0</v>
       </c>
+      <c r="H6" s="4">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="3">
+      <c r="A7" s="5">
         <v>43312.0</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>13</v>
+        <v>8</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="D7" s="2">
         <v>3.0</v>
@@ -585,16 +840,19 @@
       <c r="G7" s="2">
         <v>0.0</v>
       </c>
+      <c r="H7" s="4">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="3">
+      <c r="A8" s="5">
         <v>43312.0</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>14</v>
+        <v>8</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="D8" s="2">
         <v>0.0</v>
@@ -608,19 +866,22 @@
       <c r="G8" s="2">
         <v>0.0</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>15</v>
+      <c r="H8" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3">
+      <c r="A9" s="5">
         <v>43312.0</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="D9" s="2">
         <v>5.0</v>
@@ -634,42 +895,45 @@
       <c r="G9" s="2">
         <v>0.0</v>
       </c>
+      <c r="H9" s="4">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="3">
+      <c r="A10" s="5">
         <v>43312.0</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10" s="2" t="s">
+      <c r="D10" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H10" s="4">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="5">
+        <v>43312.0</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3">
-        <v>43312.0</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>20</v>
       </c>
       <c r="D11" s="2">
         <v>0.0</v>
@@ -683,19 +947,22 @@
       <c r="G11" s="2">
         <v>0.0</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H11" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="5">
+        <v>43312.0</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="3">
-        <v>43312.0</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="D12" s="2">
         <v>3.0</v>
@@ -709,16 +976,19 @@
       <c r="G12" s="2">
         <v>0.0</v>
       </c>
+      <c r="H12" s="4">
+        <v>7.0</v>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" s="3">
+      <c r="A13" s="5">
         <v>43312.0</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>23</v>
+        <v>8</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="D13" s="2">
         <v>2.0</v>
@@ -732,16 +1002,19 @@
       <c r="G13" s="2">
         <v>0.0</v>
       </c>
+      <c r="H13" s="4">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" s="3">
+      <c r="A14" s="5">
         <v>43312.0</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>24</v>
+        <v>8</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="D14" s="2">
         <v>0.0</v>
@@ -755,19 +1028,22 @@
       <c r="G14" s="2">
         <v>0.0</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="H14" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="5">
+        <v>43312.0</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="3">
-        <v>43312.0</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>26</v>
       </c>
       <c r="D15" s="2">
         <v>2.0</v>
@@ -781,19 +1057,22 @@
       <c r="G15" s="2">
         <v>0.0</v>
       </c>
-      <c r="H15" s="5" t="s">
-        <v>25</v>
+      <c r="H15" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="3">
+      <c r="A16" s="5">
         <v>43312.0</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>27</v>
+        <v>8</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="D16" s="2">
         <v>7.0</v>
@@ -807,16 +1086,19 @@
       <c r="G16" s="2">
         <v>0.0</v>
       </c>
+      <c r="H16" s="4">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" s="3">
+      <c r="A17" s="5">
         <v>43312.0</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>28</v>
+        <v>8</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="D17" s="2">
         <v>0.0</v>
@@ -830,16 +1112,19 @@
       <c r="G17" s="2">
         <v>0.0</v>
       </c>
+      <c r="H17" s="4">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="18">
-      <c r="A18" s="3">
+      <c r="A18" s="5">
         <v>43312.0</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>29</v>
+        <v>8</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="D18" s="2">
         <v>3.0</v>
@@ -853,16 +1138,19 @@
       <c r="G18" s="2">
         <v>0.0</v>
       </c>
+      <c r="H18" s="4">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="3">
+      <c r="A19" s="5">
         <v>43312.0</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>30</v>
+        <v>8</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="D19" s="2">
         <v>0.0</v>
@@ -876,16 +1164,19 @@
       <c r="G19" s="2">
         <v>0.0</v>
       </c>
+      <c r="H19" s="4">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="3">
+      <c r="A20" s="5">
         <v>43312.0</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="D20" s="2">
         <v>0.0</v>
@@ -899,16 +1190,19 @@
       <c r="G20" s="2">
         <v>0.0</v>
       </c>
+      <c r="H20" s="4">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="3">
+      <c r="A21" s="5">
         <v>43312.0</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>32</v>
+        <v>8</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="D21" s="2">
         <v>1.0</v>
@@ -922,19 +1216,22 @@
       <c r="G21" s="2">
         <v>0.0</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="H21" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="5">
+        <v>43312.0</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="3">
-        <v>43312.0</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>34</v>
       </c>
       <c r="D22" s="2">
         <v>2.0</v>
@@ -948,242 +1245,272 @@
       <c r="G22" s="2">
         <v>0.0</v>
       </c>
-      <c r="H22" s="5" t="s">
-        <v>25</v>
+      <c r="H22" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="3">
+      <c r="A23" s="5">
         <v>43312.0</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G23" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H23" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="5">
+        <v>43312.0</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D23" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E23" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="F23" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="G23" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="3">
-        <v>43312.0</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="4" t="s">
+      <c r="D24" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="F24" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G24" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H24" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="I24" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D24" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E24" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="F24" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="G24" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="H24" s="5" t="s">
+    </row>
+    <row r="25">
+      <c r="A25" s="5">
+        <v>43312.0</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="6" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="3">
-        <v>43312.0</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="4" t="s">
+      <c r="D25" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="F25" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G25" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H25" s="4">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="5">
+        <v>43312.0</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D25" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E25" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="F25" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="G25" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="3">
-        <v>43312.0</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="4" t="s">
+      <c r="D26" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="F26" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G26" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H26" s="4">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="5">
+        <v>43312.0</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D26" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E26" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="F26" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="G26" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="3">
-        <v>43312.0</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="4" t="s">
+      <c r="D27" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="F27" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G27" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H27" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="5">
+        <v>43312.0</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D27" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E27" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="F27" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="G27" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="3">
-        <v>43312.0</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" s="4" t="s">
+      <c r="D28" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="E28" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="F28" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G28" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H28" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="5">
+        <v>43312.0</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D28" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E28" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="F28" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="G28" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="3">
-        <v>43312.0</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29" s="4" t="s">
+      <c r="D29" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="E29" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="F29" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G29" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H29" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="5">
+        <v>43312.0</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D29" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E29" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="F29" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="G29" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="3">
-        <v>43312.0</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" s="4" t="s">
+      <c r="D30" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="E30" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="F30" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G30" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H30" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="I30" s="7"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="5">
+        <v>43312.0</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D30" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E30" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="F30" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="G30" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="H30" s="5"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="3">
-        <v>43312.0</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C31" s="4" t="s">
+      <c r="D31" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="E31" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="F31" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G31" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H31" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="I31" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D31" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E31" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="F31" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="G31" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="H31" s="2" t="s">
+    </row>
+    <row r="32">
+      <c r="A32" s="5">
+        <v>43312.0</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="6" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="3">
-        <v>43312.0</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>46</v>
       </c>
       <c r="D32" s="2">
         <v>2.0</v>
@@ -1197,16 +1524,19 @@
       <c r="G32" s="2">
         <v>0.0</v>
       </c>
+      <c r="H32" s="4">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="3">
+      <c r="A33" s="5">
         <v>43312.0</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>47</v>
+        <v>8</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>46</v>
       </c>
       <c r="D33" s="2">
         <v>8.0</v>
@@ -1220,16 +1550,19 @@
       <c r="G33" s="2">
         <v>0.0</v>
       </c>
+      <c r="H33" s="4">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="3">
+      <c r="A34" s="5">
         <v>43312.0</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>48</v>
+        <v>8</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>47</v>
       </c>
       <c r="D34" s="2">
         <v>0.0</v>
@@ -1243,16 +1576,19 @@
       <c r="G34" s="2">
         <v>0.0</v>
       </c>
+      <c r="H34" s="4">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="3">
+      <c r="A35" s="5">
         <v>43312.0</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>49</v>
+        <v>8</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>48</v>
       </c>
       <c r="D35" s="2">
         <v>5.0</v>
@@ -1266,39 +1602,45 @@
       <c r="G35" s="2">
         <v>0.0</v>
       </c>
+      <c r="H35" s="4">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="3">
+      <c r="A36" s="5">
         <v>43312.0</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C36" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D36" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="E36" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="F36" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G36" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H36" s="4">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="5">
+        <v>43312.0</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="6" t="s">
         <v>50</v>
-      </c>
-      <c r="D36" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E36" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="F36" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="G36" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="3">
-        <v>43312.0</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>51</v>
       </c>
       <c r="D37" s="2">
         <v>0.0</v>
@@ -1312,16 +1654,19 @@
       <c r="G37" s="2">
         <v>0.0</v>
       </c>
+      <c r="H37" s="4">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="3">
+      <c r="A38" s="5">
         <v>43312.0</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>52</v>
+        <v>8</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="D38" s="2">
         <v>3.0</v>
@@ -1335,19 +1680,22 @@
       <c r="G38" s="2">
         <v>0.0</v>
       </c>
-      <c r="H38" s="6" t="s">
+      <c r="H38" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="I38" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="5">
+        <v>43312.0</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="6" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="3">
-        <v>43312.0</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>54</v>
       </c>
       <c r="D39" s="2">
         <v>0.0</v>
@@ -1361,42 +1709,48 @@
       <c r="G39" s="2">
         <v>1.0</v>
       </c>
+      <c r="H39" s="4">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="3">
+      <c r="A40" s="5">
         <v>43312.0</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C40" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D40" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="E40" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="F40" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G40" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H40" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="I40" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D40" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E40" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="F40" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="G40" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="H40" s="2" t="s">
+    </row>
+    <row r="41">
+      <c r="A41" s="5">
+        <v>43312.0</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" s="6" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="3">
-        <v>43312.0</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>57</v>
       </c>
       <c r="D41" s="2">
         <v>6.0</v>
@@ -1410,71 +1764,80 @@
       <c r="G41" s="2">
         <v>0.0</v>
       </c>
-      <c r="H41" s="2" t="s">
+      <c r="H41" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="5">
+        <v>43312.0</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" s="6" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="3">
-        <v>43312.0</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C42" s="4" t="s">
+      <c r="D42" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="E42" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="F42" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G42" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H42" s="4">
+        <v>16.0</v>
+      </c>
+      <c r="I42" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D42" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E42" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="F42" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="G42" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="H42" s="2" t="s">
+    </row>
+    <row r="43">
+      <c r="A43" s="5">
+        <v>43312.0</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="3">
-        <v>43312.0</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C43" s="1" t="s">
+      <c r="D43" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="E43" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="F43" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G43" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H43" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="I43" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="D43" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E43" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="F43" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="G43" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="H43" s="5" t="s">
+    </row>
+    <row r="44">
+      <c r="A44" s="5">
+        <v>43312.0</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="3">
-        <v>43312.0</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="D44" s="2">
         <v>5.0</v>
@@ -1488,44 +1851,50 @@
       <c r="G44" s="2">
         <v>0.0</v>
       </c>
-      <c r="H44" s="2" t="s">
+      <c r="H44" s="4">
+        <v>30.0</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="5">
+        <v>43312.0</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="3">
-        <v>43312.0</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C45" s="1" t="s">
+      <c r="D45" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D45" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="E45" s="2" t="s">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H45" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I45" s="2" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="3">
+      <c r="A46" s="5">
         <v>43312.0</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C46" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" s="6" t="s">
         <v>67</v>
       </c>
       <c r="D46" s="2">
@@ -1540,18 +1909,21 @@
       <c r="G46" s="2">
         <v>0.0</v>
       </c>
-      <c r="H46" s="2" t="s">
+      <c r="H46" s="4">
+        <v>18.0</v>
+      </c>
+      <c r="I46" s="2" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="3">
+      <c r="A47" s="5">
         <v>43312.0</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C47" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" s="6" t="s">
         <v>69</v>
       </c>
       <c r="D47" s="2">
@@ -1566,18 +1938,21 @@
       <c r="G47" s="2">
         <v>0.0</v>
       </c>
-      <c r="H47" s="5" t="s">
-        <v>62</v>
+      <c r="H47" s="4">
+        <v>23.0</v>
+      </c>
+      <c r="I47" s="7" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="3">
+      <c r="A48" s="5">
         <v>43312.0</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C48" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" s="6" t="s">
         <v>70</v>
       </c>
       <c r="D48" s="2">
@@ -1592,15 +1967,18 @@
       <c r="G48" s="2">
         <v>0.0</v>
       </c>
+      <c r="H48" s="4">
+        <v>20.0</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="3">
+      <c r="A49" s="5">
         <v>43312.0</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C49" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" s="6" t="s">
         <v>71</v>
       </c>
       <c r="D49" s="2">
@@ -1615,18 +1993,21 @@
       <c r="G49" s="2">
         <v>0.0</v>
       </c>
-      <c r="H49" s="5" t="s">
-        <v>62</v>
+      <c r="H49" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="I49" s="7" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="3">
+      <c r="A50" s="5">
         <v>43312.0</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C50" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" s="6" t="s">
         <v>72</v>
       </c>
       <c r="D50" s="2">
@@ -1641,18 +2022,21 @@
       <c r="G50" s="2">
         <v>0.0</v>
       </c>
-      <c r="H50" s="5" t="s">
-        <v>62</v>
+      <c r="H50" s="4">
+        <v>17.0</v>
+      </c>
+      <c r="I50" s="7" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="3">
+      <c r="A51" s="5">
         <v>43312.0</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C51" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="6" t="s">
         <v>73</v>
       </c>
       <c r="D51" s="2">
@@ -1667,18 +2051,21 @@
       <c r="G51" s="2">
         <v>0.0</v>
       </c>
-      <c r="H51" s="5" t="s">
+      <c r="H51" s="4">
+        <v>14.0</v>
+      </c>
+      <c r="I51" s="7" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="3">
+      <c r="A52" s="5">
         <v>43312.0</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C52" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" s="6" t="s">
         <v>75</v>
       </c>
       <c r="D52" s="2">
@@ -1693,15 +2080,18 @@
       <c r="G52" s="2">
         <v>0.0</v>
       </c>
+      <c r="H52" s="4">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="3">
+      <c r="A53" s="5">
         <v>43312.0</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C53" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" s="6" t="s">
         <v>76</v>
       </c>
       <c r="D53" s="2">
@@ -1716,18 +2106,21 @@
       <c r="G53" s="2">
         <v>0.0</v>
       </c>
-      <c r="H53" s="5" t="s">
-        <v>25</v>
+      <c r="H53" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="I53" s="7" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="3">
+      <c r="A54" s="5">
         <v>43312.0</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C54" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" s="6" t="s">
         <v>77</v>
       </c>
       <c r="D54" s="2">
@@ -1742,16 +2135,19 @@
       <c r="G54" s="2">
         <v>0.0</v>
       </c>
-      <c r="H54" s="5" t="s">
-        <v>25</v>
+      <c r="H54" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="I54" s="7" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="3">
+      <c r="A55" s="5">
         <v>43312.0</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>78</v>
@@ -1768,18 +2164,21 @@
       <c r="G55" s="2">
         <v>0.0</v>
       </c>
-      <c r="H55" s="5" t="s">
-        <v>25</v>
+      <c r="H55" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="I55" s="7" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="3">
+      <c r="A56" s="5">
         <v>43312.0</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C56" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C56" s="6" t="s">
         <v>79</v>
       </c>
       <c r="D56" s="2">
@@ -1794,18 +2193,21 @@
       <c r="G56" s="2">
         <v>0.0</v>
       </c>
-      <c r="H56" s="5" t="s">
-        <v>25</v>
+      <c r="H56" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="I56" s="7" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="3">
+      <c r="A57" s="5">
         <v>43312.0</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C57" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C57" s="6" t="s">
         <v>80</v>
       </c>
       <c r="D57" s="2">
@@ -1820,18 +2222,21 @@
       <c r="G57" s="2">
         <v>0.0</v>
       </c>
-      <c r="H57" s="5" t="s">
-        <v>25</v>
+      <c r="H57" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="I57" s="7" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="3">
+      <c r="A58" s="5">
         <v>43312.0</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C58" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58" s="6" t="s">
         <v>81</v>
       </c>
       <c r="D58" s="2">
@@ -1846,44 +2251,50 @@
       <c r="G58" s="2">
         <v>0.0</v>
       </c>
-      <c r="H58" s="5" t="s">
+      <c r="H58" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="I58" s="7" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="3">
+      <c r="A59" s="5">
         <v>43312.0</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H59" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H59" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I59" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="3">
+      <c r="A60" s="5">
         <v>43312.0</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C60" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60" s="6" t="s">
         <v>85</v>
       </c>
       <c r="D60" s="2">
@@ -1898,15 +2309,18 @@
       <c r="G60" s="2">
         <v>0.0</v>
       </c>
+      <c r="H60" s="4">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="3">
+      <c r="A61" s="5">
         <v>43312.0</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C61" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C61" s="6" t="s">
         <v>86</v>
       </c>
       <c r="D61" s="2">
@@ -1921,18 +2335,21 @@
       <c r="G61" s="2">
         <v>0.0</v>
       </c>
-      <c r="H61" s="5" t="s">
-        <v>25</v>
+      <c r="H61" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="I61" s="7" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="3">
+      <c r="A62" s="5">
         <v>43312.0</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C62" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C62" s="6" t="s">
         <v>87</v>
       </c>
       <c r="D62" s="2">
@@ -1947,16 +2364,19 @@
       <c r="G62" s="2">
         <v>0.0</v>
       </c>
-      <c r="H62" s="5"/>
+      <c r="H62" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="I62" s="7"/>
     </row>
     <row r="63">
-      <c r="A63" s="3">
+      <c r="A63" s="5">
         <v>43312.0</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C63" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C63" s="6" t="s">
         <v>88</v>
       </c>
       <c r="D63" s="2">
@@ -1971,15 +2391,18 @@
       <c r="G63" s="2">
         <v>0.0</v>
       </c>
+      <c r="H63" s="4">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="3">
+      <c r="A64" s="5">
         <v>43312.0</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C64" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64" s="6" t="s">
         <v>89</v>
       </c>
       <c r="D64" s="2">
@@ -1994,15 +2417,18 @@
       <c r="G64" s="2">
         <v>0.0</v>
       </c>
+      <c r="H64" s="4">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="3">
+      <c r="A65" s="5">
         <v>43312.0</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C65" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65" s="6" t="s">
         <v>90</v>
       </c>
       <c r="D65" s="2">
@@ -2017,15 +2443,18 @@
       <c r="G65" s="2">
         <v>0.0</v>
       </c>
+      <c r="H65" s="4">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="3">
+      <c r="A66" s="5">
         <v>43312.0</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C66" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C66" s="6" t="s">
         <v>91</v>
       </c>
       <c r="D66" s="2">
@@ -2040,15 +2469,18 @@
       <c r="G66" s="2">
         <v>0.0</v>
       </c>
+      <c r="H66" s="4">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="3">
+      <c r="A67" s="5">
         <v>43312.0</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C67" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C67" s="6" t="s">
         <v>92</v>
       </c>
       <c r="D67" s="2">
@@ -2063,15 +2495,18 @@
       <c r="G67" s="2">
         <v>0.0</v>
       </c>
+      <c r="H67" s="4">
+        <v>7.0</v>
+      </c>
     </row>
     <row r="68">
-      <c r="A68" s="3">
+      <c r="A68" s="5">
         <v>43312.0</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C68" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C68" s="6" t="s">
         <v>93</v>
       </c>
       <c r="D68" s="2">
@@ -2086,15 +2521,18 @@
       <c r="G68" s="2">
         <v>0.0</v>
       </c>
+      <c r="H68" s="4">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="69">
-      <c r="A69" s="3">
+      <c r="A69" s="5">
         <v>43312.0</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C69" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C69" s="6" t="s">
         <v>94</v>
       </c>
       <c r="D69" s="2">
@@ -2109,18 +2547,21 @@
       <c r="G69" s="2">
         <v>0.0</v>
       </c>
-      <c r="H69" s="5" t="s">
-        <v>25</v>
+      <c r="H69" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="I69" s="7" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="3">
+      <c r="A70" s="5">
         <v>43312.0</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C70" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70" s="6" t="s">
         <v>95</v>
       </c>
       <c r="D70" s="2">
@@ -2135,18 +2576,21 @@
       <c r="G70" s="2">
         <v>0.0</v>
       </c>
-      <c r="H70" s="5" t="s">
-        <v>25</v>
+      <c r="H70" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="I70" s="7" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="3">
+      <c r="A71" s="5">
         <v>43312.0</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C71" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C71" s="6" t="s">
         <v>96</v>
       </c>
       <c r="D71" s="2">
@@ -2161,15 +2605,18 @@
       <c r="G71" s="2">
         <v>0.0</v>
       </c>
+      <c r="H71" s="4">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="72">
-      <c r="A72" s="3">
+      <c r="A72" s="5">
         <v>43312.0</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C72" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72" s="6" t="s">
         <v>97</v>
       </c>
       <c r="D72" s="2">
@@ -2184,15 +2631,18 @@
       <c r="G72" s="2">
         <v>0.0</v>
       </c>
+      <c r="H72" s="4">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="73">
-      <c r="A73" s="3">
+      <c r="A73" s="5">
         <v>43312.0</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C73" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C73" s="6" t="s">
         <v>98</v>
       </c>
       <c r="D73" s="2">
@@ -2207,15 +2657,18 @@
       <c r="G73" s="2">
         <v>0.0</v>
       </c>
+      <c r="H73" s="4">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="74">
-      <c r="A74" s="3">
+      <c r="A74" s="5">
         <v>43312.0</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C74" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C74" s="6" t="s">
         <v>99</v>
       </c>
       <c r="D74" s="2">
@@ -2230,15 +2683,18 @@
       <c r="G74" s="2">
         <v>0.0</v>
       </c>
+      <c r="H74" s="4">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="75">
-      <c r="A75" s="3">
+      <c r="A75" s="5">
         <v>43312.0</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C75" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C75" s="6" t="s">
         <v>100</v>
       </c>
       <c r="D75" s="2">
@@ -2253,15 +2709,18 @@
       <c r="G75" s="2">
         <v>0.0</v>
       </c>
+      <c r="H75" s="4">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="76">
-      <c r="A76" s="3">
+      <c r="A76" s="5">
         <v>43312.0</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C76" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C76" s="6" t="s">
         <v>101</v>
       </c>
       <c r="D76" s="2">
@@ -2276,15 +2735,18 @@
       <c r="G76" s="2">
         <v>0.0</v>
       </c>
+      <c r="H76" s="4">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="77">
-      <c r="A77" s="3">
+      <c r="A77" s="5">
         <v>43312.0</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C77" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C77" s="6" t="s">
         <v>102</v>
       </c>
       <c r="D77" s="2">
@@ -2299,15 +2761,18 @@
       <c r="G77" s="2">
         <v>0.0</v>
       </c>
+      <c r="H77" s="4">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="78">
-      <c r="A78" s="3">
+      <c r="A78" s="5">
         <v>43312.0</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C78" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C78" s="6" t="s">
         <v>103</v>
       </c>
       <c r="D78" s="2">
@@ -2322,15 +2787,18 @@
       <c r="G78" s="2">
         <v>0.0</v>
       </c>
+      <c r="H78" s="4">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="79">
-      <c r="A79" s="3">
+      <c r="A79" s="5">
         <v>43312.0</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C79" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C79" s="6" t="s">
         <v>104</v>
       </c>
       <c r="D79" s="2">
@@ -2345,15 +2813,18 @@
       <c r="G79" s="2">
         <v>0.0</v>
       </c>
+      <c r="H79" s="4">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="80">
-      <c r="A80" s="3">
+      <c r="A80" s="5">
         <v>43312.0</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C80" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C80" s="6" t="s">
         <v>105</v>
       </c>
       <c r="D80" s="2">
@@ -2368,15 +2839,18 @@
       <c r="G80" s="2">
         <v>0.0</v>
       </c>
+      <c r="H80" s="4">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="81">
-      <c r="A81" s="3">
+      <c r="A81" s="5">
         <v>43312.0</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C81" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C81" s="6" t="s">
         <v>106</v>
       </c>
       <c r="D81" s="2">
@@ -2391,6 +2865,4437 @@
       <c r="G81" s="2">
         <v>0.0</v>
       </c>
+      <c r="H81" s="4">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="5">
+        <v>43315.0</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D82" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E82" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="F82" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="G82" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H82" s="4">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="5">
+        <v>43315.0</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D83" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="E83" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="F83" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G83" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H83" s="4">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="5">
+        <v>43315.0</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D84" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="E84" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="F84" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G84" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H84" s="4">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="5">
+        <v>43315.0</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D85" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="E85" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="F85" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="G85" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H85" s="4">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="5">
+        <v>43315.0</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D86" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="E86" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="F86" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G86" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H86" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="I86" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="5">
+        <v>43315.0</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D87" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="E87" s="2">
+        <v>12.0</v>
+      </c>
+      <c r="F87" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G87" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H87" s="4">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="5">
+        <v>43315.0</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D88" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="E88" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="F88" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G88" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H88" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="I88" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="5">
+        <v>43315.0</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D89" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="E89" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="F89" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G89" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H89" s="4">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="5">
+        <v>43315.0</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D90" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="E90" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="F90" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G90" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H90" s="4">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="5">
+        <v>43315.0</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D91" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="E91" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="F91" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G91" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H91" s="4">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="5">
+        <v>43315.0</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D92" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E92" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="F92" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="G92" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H92" s="4">
+        <v>11.0</v>
+      </c>
+      <c r="I92" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="5">
+        <v>43315.0</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D93" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="E93" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="F93" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G93" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H93" s="4">
+        <v>13.0</v>
+      </c>
+      <c r="I93" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="5">
+        <v>43315.0</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D94" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E94" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="F94" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="G94" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H94" s="4">
+        <v>15.0</v>
+      </c>
+      <c r="I94" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="5">
+        <v>43315.0</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D95" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="E95" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="F95" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G95" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H95" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="I95" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="5">
+        <v>43315.0</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H96" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="5">
+        <v>43315.0</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D97" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="E97" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="F97" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G97" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H97" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="I97" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="5">
+        <v>43315.0</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D98" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E98" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="F98" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G98" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H98" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="I98" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="5">
+        <v>43315.0</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D99" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E99" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="F99" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G99" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H99" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="I99" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="5">
+        <v>43315.0</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D100" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="E100" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="F100" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G100" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H100" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="I100" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="5">
+        <v>43315.0</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D101" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="E101" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="F101" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G101" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H101" s="4">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="5">
+        <v>43315.0</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D102" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="E102" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="F102" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G102" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H102" s="4">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="5">
+        <v>43315.0</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D103" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="E103" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="F103" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G103" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H103" s="4">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="5">
+        <v>43315.0</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D104" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="E104" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="F104" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G104" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H104" s="4">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="5">
+        <v>43315.0</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D105" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="E105" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="F105" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G105" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="H105" s="4">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="5">
+        <v>43315.0</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D106" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="E106" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="F106" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G106" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H106" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="5">
+        <v>43315.0</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D107" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="E107" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="F107" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G107" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H107" s="4">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="5">
+        <v>43315.0</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D108" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="E108" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="F108" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G108" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="H108" s="4">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="5">
+        <v>43315.0</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D109" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="E109" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="F109" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G109" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H109" s="4">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="5">
+        <v>43315.0</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D110" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E110" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="F110" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G110" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H110" s="4">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="5">
+        <v>43315.0</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D111" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="E111" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="F111" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G111" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H111" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="I111" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="5">
+        <v>43315.0</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D112" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="E112" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="F112" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G112" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H112" s="4">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="5">
+        <v>43315.0</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D113" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E113" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="F113" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G113" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H113" s="4">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="5">
+        <v>43315.0</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D114" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E114" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="F114" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G114" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H114" s="4">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="5">
+        <v>43315.0</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D115" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E115" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="F115" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="G115" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H115" s="4">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="5">
+        <v>43315.0</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D116" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E116" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="F116" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G116" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H116" s="4">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="5">
+        <v>43315.0</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D117" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="E117" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="F117" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G117" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H117" s="4">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="5">
+        <v>43315.0</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D118" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="E118" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="F118" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G118" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H118" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="I118" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="5">
+        <v>43315.0</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D119" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="E119" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="F119" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G119" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H119" s="4">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="5">
+        <v>43315.0</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D120" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="E120" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="F120" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G120" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H120" s="4">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="5">
+        <v>43315.0</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D121" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E121" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="F121" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G121" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H121" s="4">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="5">
+        <v>43315.0</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D122" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="E122" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="F122" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G122" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H122" s="4">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="5">
+        <v>43315.0</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D123" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="E123" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="F123" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G123" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H123" s="4">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="5">
+        <v>43315.0</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D124" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E124" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="F124" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G124" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H124" s="4">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="5">
+        <v>43315.0</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D125" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E125" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="F125" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G125" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H125" s="4">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="5">
+        <v>43315.0</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D126" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E126" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="F126" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G126" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H126" s="4">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="5">
+        <v>43315.0</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D127" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="E127" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="F127" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G127" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H127" s="4">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="5">
+        <v>43315.0</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D128" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="E128" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="F128" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G128" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H128" s="4">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="5">
+        <v>43315.0</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D129" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E129" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="F129" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G129" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H129" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="I129" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="5">
+        <v>43315.0</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D130" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="E130" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="F130" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G130" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H130" s="4">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="5">
+        <v>43315.0</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D131" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E131" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="F131" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G131" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H131" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="I131" s="7"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="5">
+        <v>43315.0</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D132" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E132" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="F132" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="G132" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H132" s="4">
+        <v>31.0</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="5">
+        <v>43315.0</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D133" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="E133" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="F133" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G133" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H133" s="4">
+        <v>48.0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="5">
+        <v>43315.0</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D134" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="E134" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="F134" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G134" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H134" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="5">
+        <v>43315.0</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D135" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E135" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="F135" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="G135" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H135" s="4">
+        <v>46.0</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="5">
+        <v>43315.0</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D136" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="E136" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="F136" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G136" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H136" s="4">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="5">
+        <v>43315.0</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D137" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="E137" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="F137" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G137" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H137" s="4">
+        <v>25.0</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="5">
+        <v>43315.0</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D138" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="E138" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="F138" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G138" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H138" s="4">
+        <v>40.0</v>
+      </c>
+      <c r="I138" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="5">
+        <v>43315.0</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D139" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="E139" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="F139" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="G139" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H139" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="I139" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="5">
+        <v>43315.0</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D140" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E140" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="F140" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="G140" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H140" s="4">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="5">
+        <v>43315.0</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D141" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="E141" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="F141" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G141" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H141" s="4">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="5">
+        <v>43315.0</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D142" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="E142" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="F142" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G142" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H142" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="5">
+        <v>43315.0</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D143" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="E143" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="F143" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G143" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H143" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="5">
+        <v>43315.0</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D144" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="E144" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="F144" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G144" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H144" s="4">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="5">
+        <v>43315.0</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D145" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="E145" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="F145" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G145" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H145" s="4">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="5">
+        <v>43315.0</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D146" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="E146" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="F146" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G146" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H146" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="5">
+        <v>43315.0</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D147" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="E147" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="F147" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G147" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H147" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="I147" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="5">
+        <v>43315.0</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D148" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="E148" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="F148" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G148" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H148" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="I148" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="5">
+        <v>43315.0</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D149" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="E149" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="F149" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G149" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H149" s="4">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="5">
+        <v>43315.0</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D150" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="E150" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="F150" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G150" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H150" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="I150" s="7" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="5">
+        <v>43315.0</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D151" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="E151" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="F151" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G151" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H151" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="I151" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="H152" s="10"/>
+    </row>
+    <row r="153">
+      <c r="H153" s="10"/>
+    </row>
+    <row r="154">
+      <c r="H154" s="10"/>
+    </row>
+    <row r="155">
+      <c r="H155" s="10"/>
+    </row>
+    <row r="156">
+      <c r="H156" s="10"/>
+    </row>
+    <row r="157">
+      <c r="H157" s="10"/>
+    </row>
+    <row r="158">
+      <c r="H158" s="10"/>
+    </row>
+    <row r="159">
+      <c r="H159" s="10"/>
+    </row>
+    <row r="160">
+      <c r="H160" s="10"/>
+    </row>
+    <row r="161">
+      <c r="H161" s="10"/>
+    </row>
+    <row r="162">
+      <c r="H162" s="10"/>
+    </row>
+    <row r="163">
+      <c r="H163" s="10"/>
+    </row>
+    <row r="164">
+      <c r="H164" s="10"/>
+    </row>
+    <row r="165">
+      <c r="H165" s="10"/>
+    </row>
+    <row r="166">
+      <c r="H166" s="10"/>
+    </row>
+    <row r="167">
+      <c r="H167" s="10"/>
+    </row>
+    <row r="168">
+      <c r="H168" s="10"/>
+    </row>
+    <row r="169">
+      <c r="H169" s="10"/>
+    </row>
+    <row r="170">
+      <c r="H170" s="10"/>
+    </row>
+    <row r="171">
+      <c r="H171" s="10"/>
+    </row>
+    <row r="172">
+      <c r="H172" s="10"/>
+    </row>
+    <row r="173">
+      <c r="H173" s="10"/>
+    </row>
+    <row r="174">
+      <c r="H174" s="10"/>
+    </row>
+    <row r="175">
+      <c r="H175" s="10"/>
+    </row>
+    <row r="176">
+      <c r="H176" s="10"/>
+    </row>
+    <row r="177">
+      <c r="H177" s="10"/>
+    </row>
+    <row r="178">
+      <c r="H178" s="10"/>
+    </row>
+    <row r="179">
+      <c r="H179" s="10"/>
+    </row>
+    <row r="180">
+      <c r="H180" s="10"/>
+    </row>
+    <row r="181">
+      <c r="H181" s="10"/>
+    </row>
+    <row r="182">
+      <c r="H182" s="10"/>
+    </row>
+    <row r="183">
+      <c r="H183" s="10"/>
+    </row>
+    <row r="184">
+      <c r="H184" s="10"/>
+    </row>
+    <row r="185">
+      <c r="H185" s="10"/>
+    </row>
+    <row r="186">
+      <c r="H186" s="10"/>
+    </row>
+    <row r="187">
+      <c r="H187" s="10"/>
+    </row>
+    <row r="188">
+      <c r="H188" s="10"/>
+    </row>
+    <row r="189">
+      <c r="H189" s="10"/>
+    </row>
+    <row r="190">
+      <c r="H190" s="10"/>
+    </row>
+    <row r="191">
+      <c r="H191" s="10"/>
+    </row>
+    <row r="192">
+      <c r="H192" s="10"/>
+    </row>
+    <row r="193">
+      <c r="H193" s="10"/>
+    </row>
+    <row r="194">
+      <c r="H194" s="10"/>
+    </row>
+    <row r="195">
+      <c r="H195" s="10"/>
+    </row>
+    <row r="196">
+      <c r="H196" s="10"/>
+    </row>
+    <row r="197">
+      <c r="H197" s="10"/>
+    </row>
+    <row r="198">
+      <c r="H198" s="10"/>
+    </row>
+    <row r="199">
+      <c r="H199" s="10"/>
+    </row>
+    <row r="200">
+      <c r="H200" s="10"/>
+    </row>
+    <row r="201">
+      <c r="H201" s="10"/>
+    </row>
+    <row r="202">
+      <c r="H202" s="10"/>
+    </row>
+    <row r="203">
+      <c r="H203" s="10"/>
+    </row>
+    <row r="204">
+      <c r="H204" s="10"/>
+    </row>
+    <row r="205">
+      <c r="H205" s="10"/>
+    </row>
+    <row r="206">
+      <c r="H206" s="10"/>
+    </row>
+    <row r="207">
+      <c r="H207" s="10"/>
+    </row>
+    <row r="208">
+      <c r="H208" s="10"/>
+    </row>
+    <row r="209">
+      <c r="H209" s="10"/>
+    </row>
+    <row r="210">
+      <c r="H210" s="10"/>
+    </row>
+    <row r="211">
+      <c r="H211" s="10"/>
+    </row>
+    <row r="212">
+      <c r="H212" s="10"/>
+    </row>
+    <row r="213">
+      <c r="H213" s="10"/>
+    </row>
+    <row r="214">
+      <c r="H214" s="10"/>
+    </row>
+    <row r="215">
+      <c r="H215" s="10"/>
+    </row>
+    <row r="216">
+      <c r="H216" s="10"/>
+    </row>
+    <row r="217">
+      <c r="H217" s="10"/>
+    </row>
+    <row r="218">
+      <c r="H218" s="10"/>
+    </row>
+    <row r="219">
+      <c r="H219" s="10"/>
+    </row>
+    <row r="220">
+      <c r="H220" s="10"/>
+    </row>
+    <row r="221">
+      <c r="H221" s="10"/>
+    </row>
+    <row r="222">
+      <c r="H222" s="10"/>
+    </row>
+    <row r="223">
+      <c r="H223" s="10"/>
+    </row>
+    <row r="224">
+      <c r="H224" s="10"/>
+    </row>
+    <row r="225">
+      <c r="H225" s="10"/>
+    </row>
+    <row r="226">
+      <c r="H226" s="10"/>
+    </row>
+    <row r="227">
+      <c r="H227" s="10"/>
+    </row>
+    <row r="228">
+      <c r="H228" s="10"/>
+    </row>
+    <row r="229">
+      <c r="H229" s="10"/>
+    </row>
+    <row r="230">
+      <c r="H230" s="10"/>
+    </row>
+    <row r="231">
+      <c r="H231" s="10"/>
+    </row>
+    <row r="232">
+      <c r="H232" s="10"/>
+    </row>
+    <row r="233">
+      <c r="H233" s="10"/>
+    </row>
+    <row r="234">
+      <c r="H234" s="10"/>
+    </row>
+    <row r="235">
+      <c r="H235" s="10"/>
+    </row>
+    <row r="236">
+      <c r="H236" s="10"/>
+    </row>
+    <row r="237">
+      <c r="H237" s="10"/>
+    </row>
+    <row r="238">
+      <c r="H238" s="10"/>
+    </row>
+    <row r="239">
+      <c r="H239" s="10"/>
+    </row>
+    <row r="240">
+      <c r="H240" s="10"/>
+    </row>
+    <row r="241">
+      <c r="H241" s="10"/>
+    </row>
+    <row r="242">
+      <c r="H242" s="10"/>
+    </row>
+    <row r="243">
+      <c r="H243" s="10"/>
+    </row>
+    <row r="244">
+      <c r="H244" s="10"/>
+    </row>
+    <row r="245">
+      <c r="H245" s="10"/>
+    </row>
+    <row r="246">
+      <c r="H246" s="10"/>
+    </row>
+    <row r="247">
+      <c r="H247" s="10"/>
+    </row>
+    <row r="248">
+      <c r="H248" s="10"/>
+    </row>
+    <row r="249">
+      <c r="H249" s="10"/>
+    </row>
+    <row r="250">
+      <c r="H250" s="10"/>
+    </row>
+    <row r="251">
+      <c r="H251" s="10"/>
+    </row>
+    <row r="252">
+      <c r="H252" s="10"/>
+    </row>
+    <row r="253">
+      <c r="H253" s="10"/>
+    </row>
+    <row r="254">
+      <c r="H254" s="10"/>
+    </row>
+    <row r="255">
+      <c r="H255" s="10"/>
+    </row>
+    <row r="256">
+      <c r="H256" s="10"/>
+    </row>
+    <row r="257">
+      <c r="H257" s="10"/>
+    </row>
+    <row r="258">
+      <c r="H258" s="10"/>
+    </row>
+    <row r="259">
+      <c r="H259" s="10"/>
+    </row>
+    <row r="260">
+      <c r="H260" s="10"/>
+    </row>
+    <row r="261">
+      <c r="H261" s="10"/>
+    </row>
+    <row r="262">
+      <c r="H262" s="10"/>
+    </row>
+    <row r="263">
+      <c r="H263" s="10"/>
+    </row>
+    <row r="264">
+      <c r="H264" s="10"/>
+    </row>
+    <row r="265">
+      <c r="H265" s="10"/>
+    </row>
+    <row r="266">
+      <c r="H266" s="10"/>
+    </row>
+    <row r="267">
+      <c r="H267" s="10"/>
+    </row>
+    <row r="268">
+      <c r="H268" s="10"/>
+    </row>
+    <row r="269">
+      <c r="H269" s="10"/>
+    </row>
+    <row r="270">
+      <c r="H270" s="10"/>
+    </row>
+    <row r="271">
+      <c r="H271" s="10"/>
+    </row>
+    <row r="272">
+      <c r="H272" s="10"/>
+    </row>
+    <row r="273">
+      <c r="H273" s="10"/>
+    </row>
+    <row r="274">
+      <c r="H274" s="10"/>
+    </row>
+    <row r="275">
+      <c r="H275" s="10"/>
+    </row>
+    <row r="276">
+      <c r="H276" s="10"/>
+    </row>
+    <row r="277">
+      <c r="H277" s="10"/>
+    </row>
+    <row r="278">
+      <c r="H278" s="10"/>
+    </row>
+    <row r="279">
+      <c r="H279" s="10"/>
+    </row>
+    <row r="280">
+      <c r="H280" s="10"/>
+    </row>
+    <row r="281">
+      <c r="H281" s="10"/>
+    </row>
+    <row r="282">
+      <c r="H282" s="10"/>
+    </row>
+    <row r="283">
+      <c r="H283" s="10"/>
+    </row>
+    <row r="284">
+      <c r="H284" s="10"/>
+    </row>
+    <row r="285">
+      <c r="H285" s="10"/>
+    </row>
+    <row r="286">
+      <c r="H286" s="10"/>
+    </row>
+    <row r="287">
+      <c r="H287" s="10"/>
+    </row>
+    <row r="288">
+      <c r="H288" s="10"/>
+    </row>
+    <row r="289">
+      <c r="H289" s="10"/>
+    </row>
+    <row r="290">
+      <c r="H290" s="10"/>
+    </row>
+    <row r="291">
+      <c r="H291" s="10"/>
+    </row>
+    <row r="292">
+      <c r="H292" s="10"/>
+    </row>
+    <row r="293">
+      <c r="H293" s="10"/>
+    </row>
+    <row r="294">
+      <c r="H294" s="10"/>
+    </row>
+    <row r="295">
+      <c r="H295" s="10"/>
+    </row>
+    <row r="296">
+      <c r="H296" s="10"/>
+    </row>
+    <row r="297">
+      <c r="H297" s="10"/>
+    </row>
+    <row r="298">
+      <c r="H298" s="10"/>
+    </row>
+    <row r="299">
+      <c r="H299" s="10"/>
+    </row>
+    <row r="300">
+      <c r="H300" s="10"/>
+    </row>
+    <row r="301">
+      <c r="H301" s="10"/>
+    </row>
+    <row r="302">
+      <c r="H302" s="10"/>
+    </row>
+    <row r="303">
+      <c r="H303" s="10"/>
+    </row>
+    <row r="304">
+      <c r="H304" s="10"/>
+    </row>
+    <row r="305">
+      <c r="H305" s="10"/>
+    </row>
+    <row r="306">
+      <c r="H306" s="10"/>
+    </row>
+    <row r="307">
+      <c r="H307" s="10"/>
+    </row>
+    <row r="308">
+      <c r="H308" s="10"/>
+    </row>
+    <row r="309">
+      <c r="H309" s="10"/>
+    </row>
+    <row r="310">
+      <c r="H310" s="10"/>
+    </row>
+    <row r="311">
+      <c r="H311" s="10"/>
+    </row>
+    <row r="312">
+      <c r="H312" s="10"/>
+    </row>
+    <row r="313">
+      <c r="H313" s="10"/>
+    </row>
+    <row r="314">
+      <c r="H314" s="10"/>
+    </row>
+    <row r="315">
+      <c r="H315" s="10"/>
+    </row>
+    <row r="316">
+      <c r="H316" s="10"/>
+    </row>
+    <row r="317">
+      <c r="H317" s="10"/>
+    </row>
+    <row r="318">
+      <c r="H318" s="10"/>
+    </row>
+    <row r="319">
+      <c r="H319" s="10"/>
+    </row>
+    <row r="320">
+      <c r="H320" s="10"/>
+    </row>
+    <row r="321">
+      <c r="H321" s="10"/>
+    </row>
+    <row r="322">
+      <c r="H322" s="10"/>
+    </row>
+    <row r="323">
+      <c r="H323" s="10"/>
+    </row>
+    <row r="324">
+      <c r="H324" s="10"/>
+    </row>
+    <row r="325">
+      <c r="H325" s="10"/>
+    </row>
+    <row r="326">
+      <c r="H326" s="10"/>
+    </row>
+    <row r="327">
+      <c r="H327" s="10"/>
+    </row>
+    <row r="328">
+      <c r="H328" s="10"/>
+    </row>
+    <row r="329">
+      <c r="H329" s="10"/>
+    </row>
+    <row r="330">
+      <c r="H330" s="10"/>
+    </row>
+    <row r="331">
+      <c r="H331" s="10"/>
+    </row>
+    <row r="332">
+      <c r="H332" s="10"/>
+    </row>
+    <row r="333">
+      <c r="H333" s="10"/>
+    </row>
+    <row r="334">
+      <c r="H334" s="10"/>
+    </row>
+    <row r="335">
+      <c r="H335" s="10"/>
+    </row>
+    <row r="336">
+      <c r="H336" s="10"/>
+    </row>
+    <row r="337">
+      <c r="H337" s="10"/>
+    </row>
+    <row r="338">
+      <c r="H338" s="10"/>
+    </row>
+    <row r="339">
+      <c r="H339" s="10"/>
+    </row>
+    <row r="340">
+      <c r="H340" s="10"/>
+    </row>
+    <row r="341">
+      <c r="H341" s="10"/>
+    </row>
+    <row r="342">
+      <c r="H342" s="10"/>
+    </row>
+    <row r="343">
+      <c r="H343" s="10"/>
+    </row>
+    <row r="344">
+      <c r="H344" s="10"/>
+    </row>
+    <row r="345">
+      <c r="H345" s="10"/>
+    </row>
+    <row r="346">
+      <c r="H346" s="10"/>
+    </row>
+    <row r="347">
+      <c r="H347" s="10"/>
+    </row>
+    <row r="348">
+      <c r="H348" s="10"/>
+    </row>
+    <row r="349">
+      <c r="H349" s="10"/>
+    </row>
+    <row r="350">
+      <c r="H350" s="10"/>
+    </row>
+    <row r="351">
+      <c r="H351" s="10"/>
+    </row>
+    <row r="352">
+      <c r="H352" s="10"/>
+    </row>
+    <row r="353">
+      <c r="H353" s="10"/>
+    </row>
+    <row r="354">
+      <c r="H354" s="10"/>
+    </row>
+    <row r="355">
+      <c r="H355" s="10"/>
+    </row>
+    <row r="356">
+      <c r="H356" s="10"/>
+    </row>
+    <row r="357">
+      <c r="H357" s="10"/>
+    </row>
+    <row r="358">
+      <c r="H358" s="10"/>
+    </row>
+    <row r="359">
+      <c r="H359" s="10"/>
+    </row>
+    <row r="360">
+      <c r="H360" s="10"/>
+    </row>
+    <row r="361">
+      <c r="H361" s="10"/>
+    </row>
+    <row r="362">
+      <c r="H362" s="10"/>
+    </row>
+    <row r="363">
+      <c r="H363" s="10"/>
+    </row>
+    <row r="364">
+      <c r="H364" s="10"/>
+    </row>
+    <row r="365">
+      <c r="H365" s="10"/>
+    </row>
+    <row r="366">
+      <c r="H366" s="10"/>
+    </row>
+    <row r="367">
+      <c r="H367" s="10"/>
+    </row>
+    <row r="368">
+      <c r="H368" s="10"/>
+    </row>
+    <row r="369">
+      <c r="H369" s="10"/>
+    </row>
+    <row r="370">
+      <c r="H370" s="10"/>
+    </row>
+    <row r="371">
+      <c r="H371" s="10"/>
+    </row>
+    <row r="372">
+      <c r="H372" s="10"/>
+    </row>
+    <row r="373">
+      <c r="H373" s="10"/>
+    </row>
+    <row r="374">
+      <c r="H374" s="10"/>
+    </row>
+    <row r="375">
+      <c r="H375" s="10"/>
+    </row>
+    <row r="376">
+      <c r="H376" s="10"/>
+    </row>
+    <row r="377">
+      <c r="H377" s="10"/>
+    </row>
+    <row r="378">
+      <c r="H378" s="10"/>
+    </row>
+    <row r="379">
+      <c r="H379" s="10"/>
+    </row>
+    <row r="380">
+      <c r="H380" s="10"/>
+    </row>
+    <row r="381">
+      <c r="H381" s="10"/>
+    </row>
+    <row r="382">
+      <c r="H382" s="10"/>
+    </row>
+    <row r="383">
+      <c r="H383" s="10"/>
+    </row>
+    <row r="384">
+      <c r="H384" s="10"/>
+    </row>
+    <row r="385">
+      <c r="H385" s="10"/>
+    </row>
+    <row r="386">
+      <c r="H386" s="10"/>
+    </row>
+    <row r="387">
+      <c r="H387" s="10"/>
+    </row>
+    <row r="388">
+      <c r="H388" s="10"/>
+    </row>
+    <row r="389">
+      <c r="H389" s="10"/>
+    </row>
+    <row r="390">
+      <c r="H390" s="10"/>
+    </row>
+    <row r="391">
+      <c r="H391" s="10"/>
+    </row>
+    <row r="392">
+      <c r="H392" s="10"/>
+    </row>
+    <row r="393">
+      <c r="H393" s="10"/>
+    </row>
+    <row r="394">
+      <c r="H394" s="10"/>
+    </row>
+    <row r="395">
+      <c r="H395" s="10"/>
+    </row>
+    <row r="396">
+      <c r="H396" s="10"/>
+    </row>
+    <row r="397">
+      <c r="H397" s="10"/>
+    </row>
+    <row r="398">
+      <c r="H398" s="10"/>
+    </row>
+    <row r="399">
+      <c r="H399" s="10"/>
+    </row>
+    <row r="400">
+      <c r="H400" s="10"/>
+    </row>
+    <row r="401">
+      <c r="H401" s="10"/>
+    </row>
+    <row r="402">
+      <c r="H402" s="10"/>
+    </row>
+    <row r="403">
+      <c r="H403" s="10"/>
+    </row>
+    <row r="404">
+      <c r="H404" s="10"/>
+    </row>
+    <row r="405">
+      <c r="H405" s="10"/>
+    </row>
+    <row r="406">
+      <c r="H406" s="10"/>
+    </row>
+    <row r="407">
+      <c r="H407" s="10"/>
+    </row>
+    <row r="408">
+      <c r="H408" s="10"/>
+    </row>
+    <row r="409">
+      <c r="H409" s="10"/>
+    </row>
+    <row r="410">
+      <c r="H410" s="10"/>
+    </row>
+    <row r="411">
+      <c r="H411" s="10"/>
+    </row>
+    <row r="412">
+      <c r="H412" s="10"/>
+    </row>
+    <row r="413">
+      <c r="H413" s="10"/>
+    </row>
+    <row r="414">
+      <c r="H414" s="10"/>
+    </row>
+    <row r="415">
+      <c r="H415" s="10"/>
+    </row>
+    <row r="416">
+      <c r="H416" s="10"/>
+    </row>
+    <row r="417">
+      <c r="H417" s="10"/>
+    </row>
+    <row r="418">
+      <c r="H418" s="10"/>
+    </row>
+    <row r="419">
+      <c r="H419" s="10"/>
+    </row>
+    <row r="420">
+      <c r="H420" s="10"/>
+    </row>
+    <row r="421">
+      <c r="H421" s="10"/>
+    </row>
+    <row r="422">
+      <c r="H422" s="10"/>
+    </row>
+    <row r="423">
+      <c r="H423" s="10"/>
+    </row>
+    <row r="424">
+      <c r="H424" s="10"/>
+    </row>
+    <row r="425">
+      <c r="H425" s="10"/>
+    </row>
+    <row r="426">
+      <c r="H426" s="10"/>
+    </row>
+    <row r="427">
+      <c r="H427" s="10"/>
+    </row>
+    <row r="428">
+      <c r="H428" s="10"/>
+    </row>
+    <row r="429">
+      <c r="H429" s="10"/>
+    </row>
+    <row r="430">
+      <c r="H430" s="10"/>
+    </row>
+    <row r="431">
+      <c r="H431" s="10"/>
+    </row>
+    <row r="432">
+      <c r="H432" s="10"/>
+    </row>
+    <row r="433">
+      <c r="H433" s="10"/>
+    </row>
+    <row r="434">
+      <c r="H434" s="10"/>
+    </row>
+    <row r="435">
+      <c r="H435" s="10"/>
+    </row>
+    <row r="436">
+      <c r="H436" s="10"/>
+    </row>
+    <row r="437">
+      <c r="H437" s="10"/>
+    </row>
+    <row r="438">
+      <c r="H438" s="10"/>
+    </row>
+    <row r="439">
+      <c r="H439" s="10"/>
+    </row>
+    <row r="440">
+      <c r="H440" s="10"/>
+    </row>
+    <row r="441">
+      <c r="H441" s="10"/>
+    </row>
+    <row r="442">
+      <c r="H442" s="10"/>
+    </row>
+    <row r="443">
+      <c r="H443" s="10"/>
+    </row>
+    <row r="444">
+      <c r="H444" s="10"/>
+    </row>
+    <row r="445">
+      <c r="H445" s="10"/>
+    </row>
+    <row r="446">
+      <c r="H446" s="10"/>
+    </row>
+    <row r="447">
+      <c r="H447" s="10"/>
+    </row>
+    <row r="448">
+      <c r="H448" s="10"/>
+    </row>
+    <row r="449">
+      <c r="H449" s="10"/>
+    </row>
+    <row r="450">
+      <c r="H450" s="10"/>
+    </row>
+    <row r="451">
+      <c r="H451" s="10"/>
+    </row>
+    <row r="452">
+      <c r="H452" s="10"/>
+    </row>
+    <row r="453">
+      <c r="H453" s="10"/>
+    </row>
+    <row r="454">
+      <c r="H454" s="10"/>
+    </row>
+    <row r="455">
+      <c r="H455" s="10"/>
+    </row>
+    <row r="456">
+      <c r="H456" s="10"/>
+    </row>
+    <row r="457">
+      <c r="H457" s="10"/>
+    </row>
+    <row r="458">
+      <c r="H458" s="10"/>
+    </row>
+    <row r="459">
+      <c r="H459" s="10"/>
+    </row>
+    <row r="460">
+      <c r="H460" s="10"/>
+    </row>
+    <row r="461">
+      <c r="H461" s="10"/>
+    </row>
+    <row r="462">
+      <c r="H462" s="10"/>
+    </row>
+    <row r="463">
+      <c r="H463" s="10"/>
+    </row>
+    <row r="464">
+      <c r="H464" s="10"/>
+    </row>
+    <row r="465">
+      <c r="H465" s="10"/>
+    </row>
+    <row r="466">
+      <c r="H466" s="10"/>
+    </row>
+    <row r="467">
+      <c r="H467" s="10"/>
+    </row>
+    <row r="468">
+      <c r="H468" s="10"/>
+    </row>
+    <row r="469">
+      <c r="H469" s="10"/>
+    </row>
+    <row r="470">
+      <c r="H470" s="10"/>
+    </row>
+    <row r="471">
+      <c r="H471" s="10"/>
+    </row>
+    <row r="472">
+      <c r="H472" s="10"/>
+    </row>
+    <row r="473">
+      <c r="H473" s="10"/>
+    </row>
+    <row r="474">
+      <c r="H474" s="10"/>
+    </row>
+    <row r="475">
+      <c r="H475" s="10"/>
+    </row>
+    <row r="476">
+      <c r="H476" s="10"/>
+    </row>
+    <row r="477">
+      <c r="H477" s="10"/>
+    </row>
+    <row r="478">
+      <c r="H478" s="10"/>
+    </row>
+    <row r="479">
+      <c r="H479" s="10"/>
+    </row>
+    <row r="480">
+      <c r="H480" s="10"/>
+    </row>
+    <row r="481">
+      <c r="H481" s="10"/>
+    </row>
+    <row r="482">
+      <c r="H482" s="10"/>
+    </row>
+    <row r="483">
+      <c r="H483" s="10"/>
+    </row>
+    <row r="484">
+      <c r="H484" s="10"/>
+    </row>
+    <row r="485">
+      <c r="H485" s="10"/>
+    </row>
+    <row r="486">
+      <c r="H486" s="10"/>
+    </row>
+    <row r="487">
+      <c r="H487" s="10"/>
+    </row>
+    <row r="488">
+      <c r="H488" s="10"/>
+    </row>
+    <row r="489">
+      <c r="H489" s="10"/>
+    </row>
+    <row r="490">
+      <c r="H490" s="10"/>
+    </row>
+    <row r="491">
+      <c r="H491" s="10"/>
+    </row>
+    <row r="492">
+      <c r="H492" s="10"/>
+    </row>
+    <row r="493">
+      <c r="H493" s="10"/>
+    </row>
+    <row r="494">
+      <c r="H494" s="10"/>
+    </row>
+    <row r="495">
+      <c r="H495" s="10"/>
+    </row>
+    <row r="496">
+      <c r="H496" s="10"/>
+    </row>
+    <row r="497">
+      <c r="H497" s="10"/>
+    </row>
+    <row r="498">
+      <c r="H498" s="10"/>
+    </row>
+    <row r="499">
+      <c r="H499" s="10"/>
+    </row>
+    <row r="500">
+      <c r="H500" s="10"/>
+    </row>
+    <row r="501">
+      <c r="H501" s="10"/>
+    </row>
+    <row r="502">
+      <c r="H502" s="10"/>
+    </row>
+    <row r="503">
+      <c r="H503" s="10"/>
+    </row>
+    <row r="504">
+      <c r="H504" s="10"/>
+    </row>
+    <row r="505">
+      <c r="H505" s="10"/>
+    </row>
+    <row r="506">
+      <c r="H506" s="10"/>
+    </row>
+    <row r="507">
+      <c r="H507" s="10"/>
+    </row>
+    <row r="508">
+      <c r="H508" s="10"/>
+    </row>
+    <row r="509">
+      <c r="H509" s="10"/>
+    </row>
+    <row r="510">
+      <c r="H510" s="10"/>
+    </row>
+    <row r="511">
+      <c r="H511" s="10"/>
+    </row>
+    <row r="512">
+      <c r="H512" s="10"/>
+    </row>
+    <row r="513">
+      <c r="H513" s="10"/>
+    </row>
+    <row r="514">
+      <c r="H514" s="10"/>
+    </row>
+    <row r="515">
+      <c r="H515" s="10"/>
+    </row>
+    <row r="516">
+      <c r="H516" s="10"/>
+    </row>
+    <row r="517">
+      <c r="H517" s="10"/>
+    </row>
+    <row r="518">
+      <c r="H518" s="10"/>
+    </row>
+    <row r="519">
+      <c r="H519" s="10"/>
+    </row>
+    <row r="520">
+      <c r="H520" s="10"/>
+    </row>
+    <row r="521">
+      <c r="H521" s="10"/>
+    </row>
+    <row r="522">
+      <c r="H522" s="10"/>
+    </row>
+    <row r="523">
+      <c r="H523" s="10"/>
+    </row>
+    <row r="524">
+      <c r="H524" s="10"/>
+    </row>
+    <row r="525">
+      <c r="H525" s="10"/>
+    </row>
+    <row r="526">
+      <c r="H526" s="10"/>
+    </row>
+    <row r="527">
+      <c r="H527" s="10"/>
+    </row>
+    <row r="528">
+      <c r="H528" s="10"/>
+    </row>
+    <row r="529">
+      <c r="H529" s="10"/>
+    </row>
+    <row r="530">
+      <c r="H530" s="10"/>
+    </row>
+    <row r="531">
+      <c r="H531" s="10"/>
+    </row>
+    <row r="532">
+      <c r="H532" s="10"/>
+    </row>
+    <row r="533">
+      <c r="H533" s="10"/>
+    </row>
+    <row r="534">
+      <c r="H534" s="10"/>
+    </row>
+    <row r="535">
+      <c r="H535" s="10"/>
+    </row>
+    <row r="536">
+      <c r="H536" s="10"/>
+    </row>
+    <row r="537">
+      <c r="H537" s="10"/>
+    </row>
+    <row r="538">
+      <c r="H538" s="10"/>
+    </row>
+    <row r="539">
+      <c r="H539" s="10"/>
+    </row>
+    <row r="540">
+      <c r="H540" s="10"/>
+    </row>
+    <row r="541">
+      <c r="H541" s="10"/>
+    </row>
+    <row r="542">
+      <c r="H542" s="10"/>
+    </row>
+    <row r="543">
+      <c r="H543" s="10"/>
+    </row>
+    <row r="544">
+      <c r="H544" s="10"/>
+    </row>
+    <row r="545">
+      <c r="H545" s="10"/>
+    </row>
+    <row r="546">
+      <c r="H546" s="10"/>
+    </row>
+    <row r="547">
+      <c r="H547" s="10"/>
+    </row>
+    <row r="548">
+      <c r="H548" s="10"/>
+    </row>
+    <row r="549">
+      <c r="H549" s="10"/>
+    </row>
+    <row r="550">
+      <c r="H550" s="10"/>
+    </row>
+    <row r="551">
+      <c r="H551" s="10"/>
+    </row>
+    <row r="552">
+      <c r="H552" s="10"/>
+    </row>
+    <row r="553">
+      <c r="H553" s="10"/>
+    </row>
+    <row r="554">
+      <c r="H554" s="10"/>
+    </row>
+    <row r="555">
+      <c r="H555" s="10"/>
+    </row>
+    <row r="556">
+      <c r="H556" s="10"/>
+    </row>
+    <row r="557">
+      <c r="H557" s="10"/>
+    </row>
+    <row r="558">
+      <c r="H558" s="10"/>
+    </row>
+    <row r="559">
+      <c r="H559" s="10"/>
+    </row>
+    <row r="560">
+      <c r="H560" s="10"/>
+    </row>
+    <row r="561">
+      <c r="H561" s="10"/>
+    </row>
+    <row r="562">
+      <c r="H562" s="10"/>
+    </row>
+    <row r="563">
+      <c r="H563" s="10"/>
+    </row>
+    <row r="564">
+      <c r="H564" s="10"/>
+    </row>
+    <row r="565">
+      <c r="H565" s="10"/>
+    </row>
+    <row r="566">
+      <c r="H566" s="10"/>
+    </row>
+    <row r="567">
+      <c r="H567" s="10"/>
+    </row>
+    <row r="568">
+      <c r="H568" s="10"/>
+    </row>
+    <row r="569">
+      <c r="H569" s="10"/>
+    </row>
+    <row r="570">
+      <c r="H570" s="10"/>
+    </row>
+    <row r="571">
+      <c r="H571" s="10"/>
+    </row>
+    <row r="572">
+      <c r="H572" s="10"/>
+    </row>
+    <row r="573">
+      <c r="H573" s="10"/>
+    </row>
+    <row r="574">
+      <c r="H574" s="10"/>
+    </row>
+    <row r="575">
+      <c r="H575" s="10"/>
+    </row>
+    <row r="576">
+      <c r="H576" s="10"/>
+    </row>
+    <row r="577">
+      <c r="H577" s="10"/>
+    </row>
+    <row r="578">
+      <c r="H578" s="10"/>
+    </row>
+    <row r="579">
+      <c r="H579" s="10"/>
+    </row>
+    <row r="580">
+      <c r="H580" s="10"/>
+    </row>
+    <row r="581">
+      <c r="H581" s="10"/>
+    </row>
+    <row r="582">
+      <c r="H582" s="10"/>
+    </row>
+    <row r="583">
+      <c r="H583" s="10"/>
+    </row>
+    <row r="584">
+      <c r="H584" s="10"/>
+    </row>
+    <row r="585">
+      <c r="H585" s="10"/>
+    </row>
+    <row r="586">
+      <c r="H586" s="10"/>
+    </row>
+    <row r="587">
+      <c r="H587" s="10"/>
+    </row>
+    <row r="588">
+      <c r="H588" s="10"/>
+    </row>
+    <row r="589">
+      <c r="H589" s="10"/>
+    </row>
+    <row r="590">
+      <c r="H590" s="10"/>
+    </row>
+    <row r="591">
+      <c r="H591" s="10"/>
+    </row>
+    <row r="592">
+      <c r="H592" s="10"/>
+    </row>
+    <row r="593">
+      <c r="H593" s="10"/>
+    </row>
+    <row r="594">
+      <c r="H594" s="10"/>
+    </row>
+    <row r="595">
+      <c r="H595" s="10"/>
+    </row>
+    <row r="596">
+      <c r="H596" s="10"/>
+    </row>
+    <row r="597">
+      <c r="H597" s="10"/>
+    </row>
+    <row r="598">
+      <c r="H598" s="10"/>
+    </row>
+    <row r="599">
+      <c r="H599" s="10"/>
+    </row>
+    <row r="600">
+      <c r="H600" s="10"/>
+    </row>
+    <row r="601">
+      <c r="H601" s="10"/>
+    </row>
+    <row r="602">
+      <c r="H602" s="10"/>
+    </row>
+    <row r="603">
+      <c r="H603" s="10"/>
+    </row>
+    <row r="604">
+      <c r="H604" s="10"/>
+    </row>
+    <row r="605">
+      <c r="H605" s="10"/>
+    </row>
+    <row r="606">
+      <c r="H606" s="10"/>
+    </row>
+    <row r="607">
+      <c r="H607" s="10"/>
+    </row>
+    <row r="608">
+      <c r="H608" s="10"/>
+    </row>
+    <row r="609">
+      <c r="H609" s="10"/>
+    </row>
+    <row r="610">
+      <c r="H610" s="10"/>
+    </row>
+    <row r="611">
+      <c r="H611" s="10"/>
+    </row>
+    <row r="612">
+      <c r="H612" s="10"/>
+    </row>
+    <row r="613">
+      <c r="H613" s="10"/>
+    </row>
+    <row r="614">
+      <c r="H614" s="10"/>
+    </row>
+    <row r="615">
+      <c r="H615" s="10"/>
+    </row>
+    <row r="616">
+      <c r="H616" s="10"/>
+    </row>
+    <row r="617">
+      <c r="H617" s="10"/>
+    </row>
+    <row r="618">
+      <c r="H618" s="10"/>
+    </row>
+    <row r="619">
+      <c r="H619" s="10"/>
+    </row>
+    <row r="620">
+      <c r="H620" s="10"/>
+    </row>
+    <row r="621">
+      <c r="H621" s="10"/>
+    </row>
+    <row r="622">
+      <c r="H622" s="10"/>
+    </row>
+    <row r="623">
+      <c r="H623" s="10"/>
+    </row>
+    <row r="624">
+      <c r="H624" s="10"/>
+    </row>
+    <row r="625">
+      <c r="H625" s="10"/>
+    </row>
+    <row r="626">
+      <c r="H626" s="10"/>
+    </row>
+    <row r="627">
+      <c r="H627" s="10"/>
+    </row>
+    <row r="628">
+      <c r="H628" s="10"/>
+    </row>
+    <row r="629">
+      <c r="H629" s="10"/>
+    </row>
+    <row r="630">
+      <c r="H630" s="10"/>
+    </row>
+    <row r="631">
+      <c r="H631" s="10"/>
+    </row>
+    <row r="632">
+      <c r="H632" s="10"/>
+    </row>
+    <row r="633">
+      <c r="H633" s="10"/>
+    </row>
+    <row r="634">
+      <c r="H634" s="10"/>
+    </row>
+    <row r="635">
+      <c r="H635" s="10"/>
+    </row>
+    <row r="636">
+      <c r="H636" s="10"/>
+    </row>
+    <row r="637">
+      <c r="H637" s="10"/>
+    </row>
+    <row r="638">
+      <c r="H638" s="10"/>
+    </row>
+    <row r="639">
+      <c r="H639" s="10"/>
+    </row>
+    <row r="640">
+      <c r="H640" s="10"/>
+    </row>
+    <row r="641">
+      <c r="H641" s="10"/>
+    </row>
+    <row r="642">
+      <c r="H642" s="10"/>
+    </row>
+    <row r="643">
+      <c r="H643" s="10"/>
+    </row>
+    <row r="644">
+      <c r="H644" s="10"/>
+    </row>
+    <row r="645">
+      <c r="H645" s="10"/>
+    </row>
+    <row r="646">
+      <c r="H646" s="10"/>
+    </row>
+    <row r="647">
+      <c r="H647" s="10"/>
+    </row>
+    <row r="648">
+      <c r="H648" s="10"/>
+    </row>
+    <row r="649">
+      <c r="H649" s="10"/>
+    </row>
+    <row r="650">
+      <c r="H650" s="10"/>
+    </row>
+    <row r="651">
+      <c r="H651" s="10"/>
+    </row>
+    <row r="652">
+      <c r="H652" s="10"/>
+    </row>
+    <row r="653">
+      <c r="H653" s="10"/>
+    </row>
+    <row r="654">
+      <c r="H654" s="10"/>
+    </row>
+    <row r="655">
+      <c r="H655" s="10"/>
+    </row>
+    <row r="656">
+      <c r="H656" s="10"/>
+    </row>
+    <row r="657">
+      <c r="H657" s="10"/>
+    </row>
+    <row r="658">
+      <c r="H658" s="10"/>
+    </row>
+    <row r="659">
+      <c r="H659" s="10"/>
+    </row>
+    <row r="660">
+      <c r="H660" s="10"/>
+    </row>
+    <row r="661">
+      <c r="H661" s="10"/>
+    </row>
+    <row r="662">
+      <c r="H662" s="10"/>
+    </row>
+    <row r="663">
+      <c r="H663" s="10"/>
+    </row>
+    <row r="664">
+      <c r="H664" s="10"/>
+    </row>
+    <row r="665">
+      <c r="H665" s="10"/>
+    </row>
+    <row r="666">
+      <c r="H666" s="10"/>
+    </row>
+    <row r="667">
+      <c r="H667" s="10"/>
+    </row>
+    <row r="668">
+      <c r="H668" s="10"/>
+    </row>
+    <row r="669">
+      <c r="H669" s="10"/>
+    </row>
+    <row r="670">
+      <c r="H670" s="10"/>
+    </row>
+    <row r="671">
+      <c r="H671" s="10"/>
+    </row>
+    <row r="672">
+      <c r="H672" s="10"/>
+    </row>
+    <row r="673">
+      <c r="H673" s="10"/>
+    </row>
+    <row r="674">
+      <c r="H674" s="10"/>
+    </row>
+    <row r="675">
+      <c r="H675" s="10"/>
+    </row>
+    <row r="676">
+      <c r="H676" s="10"/>
+    </row>
+    <row r="677">
+      <c r="H677" s="10"/>
+    </row>
+    <row r="678">
+      <c r="H678" s="10"/>
+    </row>
+    <row r="679">
+      <c r="H679" s="10"/>
+    </row>
+    <row r="680">
+      <c r="H680" s="10"/>
+    </row>
+    <row r="681">
+      <c r="H681" s="10"/>
+    </row>
+    <row r="682">
+      <c r="H682" s="10"/>
+    </row>
+    <row r="683">
+      <c r="H683" s="10"/>
+    </row>
+    <row r="684">
+      <c r="H684" s="10"/>
+    </row>
+    <row r="685">
+      <c r="H685" s="10"/>
+    </row>
+    <row r="686">
+      <c r="H686" s="10"/>
+    </row>
+    <row r="687">
+      <c r="H687" s="10"/>
+    </row>
+    <row r="688">
+      <c r="H688" s="10"/>
+    </row>
+    <row r="689">
+      <c r="H689" s="10"/>
+    </row>
+    <row r="690">
+      <c r="H690" s="10"/>
+    </row>
+    <row r="691">
+      <c r="H691" s="10"/>
+    </row>
+    <row r="692">
+      <c r="H692" s="10"/>
+    </row>
+    <row r="693">
+      <c r="H693" s="10"/>
+    </row>
+    <row r="694">
+      <c r="H694" s="10"/>
+    </row>
+    <row r="695">
+      <c r="H695" s="10"/>
+    </row>
+    <row r="696">
+      <c r="H696" s="10"/>
+    </row>
+    <row r="697">
+      <c r="H697" s="10"/>
+    </row>
+    <row r="698">
+      <c r="H698" s="10"/>
+    </row>
+    <row r="699">
+      <c r="H699" s="10"/>
+    </row>
+    <row r="700">
+      <c r="H700" s="10"/>
+    </row>
+    <row r="701">
+      <c r="H701" s="10"/>
+    </row>
+    <row r="702">
+      <c r="H702" s="10"/>
+    </row>
+    <row r="703">
+      <c r="H703" s="10"/>
+    </row>
+    <row r="704">
+      <c r="H704" s="10"/>
+    </row>
+    <row r="705">
+      <c r="H705" s="10"/>
+    </row>
+    <row r="706">
+      <c r="H706" s="10"/>
+    </row>
+    <row r="707">
+      <c r="H707" s="10"/>
+    </row>
+    <row r="708">
+      <c r="H708" s="10"/>
+    </row>
+    <row r="709">
+      <c r="H709" s="10"/>
+    </row>
+    <row r="710">
+      <c r="H710" s="10"/>
+    </row>
+    <row r="711">
+      <c r="H711" s="10"/>
+    </row>
+    <row r="712">
+      <c r="H712" s="10"/>
+    </row>
+    <row r="713">
+      <c r="H713" s="10"/>
+    </row>
+    <row r="714">
+      <c r="H714" s="10"/>
+    </row>
+    <row r="715">
+      <c r="H715" s="10"/>
+    </row>
+    <row r="716">
+      <c r="H716" s="10"/>
+    </row>
+    <row r="717">
+      <c r="H717" s="10"/>
+    </row>
+    <row r="718">
+      <c r="H718" s="10"/>
+    </row>
+    <row r="719">
+      <c r="H719" s="10"/>
+    </row>
+    <row r="720">
+      <c r="H720" s="10"/>
+    </row>
+    <row r="721">
+      <c r="H721" s="10"/>
+    </row>
+    <row r="722">
+      <c r="H722" s="10"/>
+    </row>
+    <row r="723">
+      <c r="H723" s="10"/>
+    </row>
+    <row r="724">
+      <c r="H724" s="10"/>
+    </row>
+    <row r="725">
+      <c r="H725" s="10"/>
+    </row>
+    <row r="726">
+      <c r="H726" s="10"/>
+    </row>
+    <row r="727">
+      <c r="H727" s="10"/>
+    </row>
+    <row r="728">
+      <c r="H728" s="10"/>
+    </row>
+    <row r="729">
+      <c r="H729" s="10"/>
+    </row>
+    <row r="730">
+      <c r="H730" s="10"/>
+    </row>
+    <row r="731">
+      <c r="H731" s="10"/>
+    </row>
+    <row r="732">
+      <c r="H732" s="10"/>
+    </row>
+    <row r="733">
+      <c r="H733" s="10"/>
+    </row>
+    <row r="734">
+      <c r="H734" s="10"/>
+    </row>
+    <row r="735">
+      <c r="H735" s="10"/>
+    </row>
+    <row r="736">
+      <c r="H736" s="10"/>
+    </row>
+    <row r="737">
+      <c r="H737" s="10"/>
+    </row>
+    <row r="738">
+      <c r="H738" s="10"/>
+    </row>
+    <row r="739">
+      <c r="H739" s="10"/>
+    </row>
+    <row r="740">
+      <c r="H740" s="10"/>
+    </row>
+    <row r="741">
+      <c r="H741" s="10"/>
+    </row>
+    <row r="742">
+      <c r="H742" s="10"/>
+    </row>
+    <row r="743">
+      <c r="H743" s="10"/>
+    </row>
+    <row r="744">
+      <c r="H744" s="10"/>
+    </row>
+    <row r="745">
+      <c r="H745" s="10"/>
+    </row>
+    <row r="746">
+      <c r="H746" s="10"/>
+    </row>
+    <row r="747">
+      <c r="H747" s="10"/>
+    </row>
+    <row r="748">
+      <c r="H748" s="10"/>
+    </row>
+    <row r="749">
+      <c r="H749" s="10"/>
+    </row>
+    <row r="750">
+      <c r="H750" s="10"/>
+    </row>
+    <row r="751">
+      <c r="H751" s="10"/>
+    </row>
+    <row r="752">
+      <c r="H752" s="10"/>
+    </row>
+    <row r="753">
+      <c r="H753" s="10"/>
+    </row>
+    <row r="754">
+      <c r="H754" s="10"/>
+    </row>
+    <row r="755">
+      <c r="H755" s="10"/>
+    </row>
+    <row r="756">
+      <c r="H756" s="10"/>
+    </row>
+    <row r="757">
+      <c r="H757" s="10"/>
+    </row>
+    <row r="758">
+      <c r="H758" s="10"/>
+    </row>
+    <row r="759">
+      <c r="H759" s="10"/>
+    </row>
+    <row r="760">
+      <c r="H760" s="10"/>
+    </row>
+    <row r="761">
+      <c r="H761" s="10"/>
+    </row>
+    <row r="762">
+      <c r="H762" s="10"/>
+    </row>
+    <row r="763">
+      <c r="H763" s="10"/>
+    </row>
+    <row r="764">
+      <c r="H764" s="10"/>
+    </row>
+    <row r="765">
+      <c r="H765" s="10"/>
+    </row>
+    <row r="766">
+      <c r="H766" s="10"/>
+    </row>
+    <row r="767">
+      <c r="H767" s="10"/>
+    </row>
+    <row r="768">
+      <c r="H768" s="10"/>
+    </row>
+    <row r="769">
+      <c r="H769" s="10"/>
+    </row>
+    <row r="770">
+      <c r="H770" s="10"/>
+    </row>
+    <row r="771">
+      <c r="H771" s="10"/>
+    </row>
+    <row r="772">
+      <c r="H772" s="10"/>
+    </row>
+    <row r="773">
+      <c r="H773" s="10"/>
+    </row>
+    <row r="774">
+      <c r="H774" s="10"/>
+    </row>
+    <row r="775">
+      <c r="H775" s="10"/>
+    </row>
+    <row r="776">
+      <c r="H776" s="10"/>
+    </row>
+    <row r="777">
+      <c r="H777" s="10"/>
+    </row>
+    <row r="778">
+      <c r="H778" s="10"/>
+    </row>
+    <row r="779">
+      <c r="H779" s="10"/>
+    </row>
+    <row r="780">
+      <c r="H780" s="10"/>
+    </row>
+    <row r="781">
+      <c r="H781" s="10"/>
+    </row>
+    <row r="782">
+      <c r="H782" s="10"/>
+    </row>
+    <row r="783">
+      <c r="H783" s="10"/>
+    </row>
+    <row r="784">
+      <c r="H784" s="10"/>
+    </row>
+    <row r="785">
+      <c r="H785" s="10"/>
+    </row>
+    <row r="786">
+      <c r="H786" s="10"/>
+    </row>
+    <row r="787">
+      <c r="H787" s="10"/>
+    </row>
+    <row r="788">
+      <c r="H788" s="10"/>
+    </row>
+    <row r="789">
+      <c r="H789" s="10"/>
+    </row>
+    <row r="790">
+      <c r="H790" s="10"/>
+    </row>
+    <row r="791">
+      <c r="H791" s="10"/>
+    </row>
+    <row r="792">
+      <c r="H792" s="10"/>
+    </row>
+    <row r="793">
+      <c r="H793" s="10"/>
+    </row>
+    <row r="794">
+      <c r="H794" s="10"/>
+    </row>
+    <row r="795">
+      <c r="H795" s="10"/>
+    </row>
+    <row r="796">
+      <c r="H796" s="10"/>
+    </row>
+    <row r="797">
+      <c r="H797" s="10"/>
+    </row>
+    <row r="798">
+      <c r="H798" s="10"/>
+    </row>
+    <row r="799">
+      <c r="H799" s="10"/>
+    </row>
+    <row r="800">
+      <c r="H800" s="10"/>
+    </row>
+    <row r="801">
+      <c r="H801" s="10"/>
+    </row>
+    <row r="802">
+      <c r="H802" s="10"/>
+    </row>
+    <row r="803">
+      <c r="H803" s="10"/>
+    </row>
+    <row r="804">
+      <c r="H804" s="10"/>
+    </row>
+    <row r="805">
+      <c r="H805" s="10"/>
+    </row>
+    <row r="806">
+      <c r="H806" s="10"/>
+    </row>
+    <row r="807">
+      <c r="H807" s="10"/>
+    </row>
+    <row r="808">
+      <c r="H808" s="10"/>
+    </row>
+    <row r="809">
+      <c r="H809" s="10"/>
+    </row>
+    <row r="810">
+      <c r="H810" s="10"/>
+    </row>
+    <row r="811">
+      <c r="H811" s="10"/>
+    </row>
+    <row r="812">
+      <c r="H812" s="10"/>
+    </row>
+    <row r="813">
+      <c r="H813" s="10"/>
+    </row>
+    <row r="814">
+      <c r="H814" s="10"/>
+    </row>
+    <row r="815">
+      <c r="H815" s="10"/>
+    </row>
+    <row r="816">
+      <c r="H816" s="10"/>
+    </row>
+    <row r="817">
+      <c r="H817" s="10"/>
+    </row>
+    <row r="818">
+      <c r="H818" s="10"/>
+    </row>
+    <row r="819">
+      <c r="H819" s="10"/>
+    </row>
+    <row r="820">
+      <c r="H820" s="10"/>
+    </row>
+    <row r="821">
+      <c r="H821" s="10"/>
+    </row>
+    <row r="822">
+      <c r="H822" s="10"/>
+    </row>
+    <row r="823">
+      <c r="H823" s="10"/>
+    </row>
+    <row r="824">
+      <c r="H824" s="10"/>
+    </row>
+    <row r="825">
+      <c r="H825" s="10"/>
+    </row>
+    <row r="826">
+      <c r="H826" s="10"/>
+    </row>
+    <row r="827">
+      <c r="H827" s="10"/>
+    </row>
+    <row r="828">
+      <c r="H828" s="10"/>
+    </row>
+    <row r="829">
+      <c r="H829" s="10"/>
+    </row>
+    <row r="830">
+      <c r="H830" s="10"/>
+    </row>
+    <row r="831">
+      <c r="H831" s="10"/>
+    </row>
+    <row r="832">
+      <c r="H832" s="10"/>
+    </row>
+    <row r="833">
+      <c r="H833" s="10"/>
+    </row>
+    <row r="834">
+      <c r="H834" s="10"/>
+    </row>
+    <row r="835">
+      <c r="H835" s="10"/>
+    </row>
+    <row r="836">
+      <c r="H836" s="10"/>
+    </row>
+    <row r="837">
+      <c r="H837" s="10"/>
+    </row>
+    <row r="838">
+      <c r="H838" s="10"/>
+    </row>
+    <row r="839">
+      <c r="H839" s="10"/>
+    </row>
+    <row r="840">
+      <c r="H840" s="10"/>
+    </row>
+    <row r="841">
+      <c r="H841" s="10"/>
+    </row>
+    <row r="842">
+      <c r="H842" s="10"/>
+    </row>
+    <row r="843">
+      <c r="H843" s="10"/>
+    </row>
+    <row r="844">
+      <c r="H844" s="10"/>
+    </row>
+    <row r="845">
+      <c r="H845" s="10"/>
+    </row>
+    <row r="846">
+      <c r="H846" s="10"/>
+    </row>
+    <row r="847">
+      <c r="H847" s="10"/>
+    </row>
+    <row r="848">
+      <c r="H848" s="10"/>
+    </row>
+    <row r="849">
+      <c r="H849" s="10"/>
+    </row>
+    <row r="850">
+      <c r="H850" s="10"/>
+    </row>
+    <row r="851">
+      <c r="H851" s="10"/>
+    </row>
+    <row r="852">
+      <c r="H852" s="10"/>
+    </row>
+    <row r="853">
+      <c r="H853" s="10"/>
+    </row>
+    <row r="854">
+      <c r="H854" s="10"/>
+    </row>
+    <row r="855">
+      <c r="H855" s="10"/>
+    </row>
+    <row r="856">
+      <c r="H856" s="10"/>
+    </row>
+    <row r="857">
+      <c r="H857" s="10"/>
+    </row>
+    <row r="858">
+      <c r="H858" s="10"/>
+    </row>
+    <row r="859">
+      <c r="H859" s="10"/>
+    </row>
+    <row r="860">
+      <c r="H860" s="10"/>
+    </row>
+    <row r="861">
+      <c r="H861" s="10"/>
+    </row>
+    <row r="862">
+      <c r="H862" s="10"/>
+    </row>
+    <row r="863">
+      <c r="H863" s="10"/>
+    </row>
+    <row r="864">
+      <c r="H864" s="10"/>
+    </row>
+    <row r="865">
+      <c r="H865" s="10"/>
+    </row>
+    <row r="866">
+      <c r="H866" s="10"/>
+    </row>
+    <row r="867">
+      <c r="H867" s="10"/>
+    </row>
+    <row r="868">
+      <c r="H868" s="10"/>
+    </row>
+    <row r="869">
+      <c r="H869" s="10"/>
+    </row>
+    <row r="870">
+      <c r="H870" s="10"/>
+    </row>
+    <row r="871">
+      <c r="H871" s="10"/>
+    </row>
+    <row r="872">
+      <c r="H872" s="10"/>
+    </row>
+    <row r="873">
+      <c r="H873" s="10"/>
+    </row>
+    <row r="874">
+      <c r="H874" s="10"/>
+    </row>
+    <row r="875">
+      <c r="H875" s="10"/>
+    </row>
+    <row r="876">
+      <c r="H876" s="10"/>
+    </row>
+    <row r="877">
+      <c r="H877" s="10"/>
+    </row>
+    <row r="878">
+      <c r="H878" s="10"/>
+    </row>
+    <row r="879">
+      <c r="H879" s="10"/>
+    </row>
+    <row r="880">
+      <c r="H880" s="10"/>
+    </row>
+    <row r="881">
+      <c r="H881" s="10"/>
+    </row>
+    <row r="882">
+      <c r="H882" s="10"/>
+    </row>
+    <row r="883">
+      <c r="H883" s="10"/>
+    </row>
+    <row r="884">
+      <c r="H884" s="10"/>
+    </row>
+    <row r="885">
+      <c r="H885" s="10"/>
+    </row>
+    <row r="886">
+      <c r="H886" s="10"/>
+    </row>
+    <row r="887">
+      <c r="H887" s="10"/>
+    </row>
+    <row r="888">
+      <c r="H888" s="10"/>
+    </row>
+    <row r="889">
+      <c r="H889" s="10"/>
+    </row>
+    <row r="890">
+      <c r="H890" s="10"/>
+    </row>
+    <row r="891">
+      <c r="H891" s="10"/>
+    </row>
+    <row r="892">
+      <c r="H892" s="10"/>
+    </row>
+    <row r="893">
+      <c r="H893" s="10"/>
+    </row>
+    <row r="894">
+      <c r="H894" s="10"/>
+    </row>
+    <row r="895">
+      <c r="H895" s="10"/>
+    </row>
+    <row r="896">
+      <c r="H896" s="10"/>
+    </row>
+    <row r="897">
+      <c r="H897" s="10"/>
+    </row>
+    <row r="898">
+      <c r="H898" s="10"/>
+    </row>
+    <row r="899">
+      <c r="H899" s="10"/>
+    </row>
+    <row r="900">
+      <c r="H900" s="10"/>
+    </row>
+    <row r="901">
+      <c r="H901" s="10"/>
+    </row>
+    <row r="902">
+      <c r="H902" s="10"/>
+    </row>
+    <row r="903">
+      <c r="H903" s="10"/>
+    </row>
+    <row r="904">
+      <c r="H904" s="10"/>
+    </row>
+    <row r="905">
+      <c r="H905" s="10"/>
+    </row>
+    <row r="906">
+      <c r="H906" s="10"/>
+    </row>
+    <row r="907">
+      <c r="H907" s="10"/>
+    </row>
+    <row r="908">
+      <c r="H908" s="10"/>
+    </row>
+    <row r="909">
+      <c r="H909" s="10"/>
+    </row>
+    <row r="910">
+      <c r="H910" s="10"/>
+    </row>
+    <row r="911">
+      <c r="H911" s="10"/>
+    </row>
+    <row r="912">
+      <c r="H912" s="10"/>
+    </row>
+    <row r="913">
+      <c r="H913" s="10"/>
+    </row>
+    <row r="914">
+      <c r="H914" s="10"/>
+    </row>
+    <row r="915">
+      <c r="H915" s="10"/>
+    </row>
+    <row r="916">
+      <c r="H916" s="10"/>
+    </row>
+    <row r="917">
+      <c r="H917" s="10"/>
+    </row>
+    <row r="918">
+      <c r="H918" s="10"/>
+    </row>
+    <row r="919">
+      <c r="H919" s="10"/>
+    </row>
+    <row r="920">
+      <c r="H920" s="10"/>
+    </row>
+    <row r="921">
+      <c r="H921" s="10"/>
+    </row>
+    <row r="922">
+      <c r="H922" s="10"/>
+    </row>
+    <row r="923">
+      <c r="H923" s="10"/>
+    </row>
+    <row r="924">
+      <c r="H924" s="10"/>
+    </row>
+    <row r="925">
+      <c r="H925" s="10"/>
+    </row>
+    <row r="926">
+      <c r="H926" s="10"/>
+    </row>
+    <row r="927">
+      <c r="H927" s="10"/>
+    </row>
+    <row r="928">
+      <c r="H928" s="10"/>
+    </row>
+    <row r="929">
+      <c r="H929" s="10"/>
+    </row>
+    <row r="930">
+      <c r="H930" s="10"/>
+    </row>
+    <row r="931">
+      <c r="H931" s="10"/>
+    </row>
+    <row r="932">
+      <c r="H932" s="10"/>
+    </row>
+    <row r="933">
+      <c r="H933" s="10"/>
+    </row>
+    <row r="934">
+      <c r="H934" s="10"/>
+    </row>
+    <row r="935">
+      <c r="H935" s="10"/>
+    </row>
+    <row r="936">
+      <c r="H936" s="10"/>
+    </row>
+    <row r="937">
+      <c r="H937" s="10"/>
+    </row>
+    <row r="938">
+      <c r="H938" s="10"/>
+    </row>
+    <row r="939">
+      <c r="H939" s="10"/>
+    </row>
+    <row r="940">
+      <c r="H940" s="10"/>
+    </row>
+    <row r="941">
+      <c r="H941" s="10"/>
+    </row>
+    <row r="942">
+      <c r="H942" s="10"/>
+    </row>
+    <row r="943">
+      <c r="H943" s="10"/>
+    </row>
+    <row r="944">
+      <c r="H944" s="10"/>
+    </row>
+    <row r="945">
+      <c r="H945" s="10"/>
+    </row>
+    <row r="946">
+      <c r="H946" s="10"/>
+    </row>
+    <row r="947">
+      <c r="H947" s="10"/>
+    </row>
+    <row r="948">
+      <c r="H948" s="10"/>
+    </row>
+    <row r="949">
+      <c r="H949" s="10"/>
+    </row>
+    <row r="950">
+      <c r="H950" s="10"/>
+    </row>
+    <row r="951">
+      <c r="H951" s="10"/>
+    </row>
+    <row r="952">
+      <c r="H952" s="10"/>
+    </row>
+    <row r="953">
+      <c r="H953" s="10"/>
+    </row>
+    <row r="954">
+      <c r="H954" s="10"/>
+    </row>
+    <row r="955">
+      <c r="H955" s="10"/>
+    </row>
+    <row r="956">
+      <c r="H956" s="10"/>
+    </row>
+    <row r="957">
+      <c r="H957" s="10"/>
+    </row>
+    <row r="958">
+      <c r="H958" s="10"/>
+    </row>
+    <row r="959">
+      <c r="H959" s="10"/>
+    </row>
+    <row r="960">
+      <c r="H960" s="10"/>
+    </row>
+    <row r="961">
+      <c r="H961" s="10"/>
+    </row>
+    <row r="962">
+      <c r="H962" s="10"/>
+    </row>
+    <row r="963">
+      <c r="H963" s="10"/>
+    </row>
+    <row r="964">
+      <c r="H964" s="10"/>
+    </row>
+    <row r="965">
+      <c r="H965" s="10"/>
+    </row>
+    <row r="966">
+      <c r="H966" s="10"/>
+    </row>
+    <row r="967">
+      <c r="H967" s="10"/>
+    </row>
+    <row r="968">
+      <c r="H968" s="10"/>
+    </row>
+    <row r="969">
+      <c r="H969" s="10"/>
+    </row>
+    <row r="970">
+      <c r="H970" s="10"/>
+    </row>
+    <row r="971">
+      <c r="H971" s="10"/>
+    </row>
+    <row r="972">
+      <c r="H972" s="10"/>
+    </row>
+    <row r="973">
+      <c r="H973" s="10"/>
+    </row>
+    <row r="974">
+      <c r="H974" s="10"/>
+    </row>
+    <row r="975">
+      <c r="H975" s="10"/>
+    </row>
+    <row r="976">
+      <c r="H976" s="10"/>
+    </row>
+    <row r="977">
+      <c r="H977" s="10"/>
+    </row>
+    <row r="978">
+      <c r="H978" s="10"/>
+    </row>
+    <row r="979">
+      <c r="H979" s="10"/>
+    </row>
+    <row r="980">
+      <c r="H980" s="10"/>
+    </row>
+    <row r="981">
+      <c r="H981" s="10"/>
+    </row>
+    <row r="982">
+      <c r="H982" s="10"/>
+    </row>
+    <row r="983">
+      <c r="H983" s="10"/>
+    </row>
+    <row r="984">
+      <c r="H984" s="10"/>
+    </row>
+    <row r="985">
+      <c r="H985" s="10"/>
+    </row>
+    <row r="986">
+      <c r="H986" s="10"/>
+    </row>
+    <row r="987">
+      <c r="H987" s="10"/>
+    </row>
+    <row r="988">
+      <c r="H988" s="10"/>
+    </row>
+    <row r="989">
+      <c r="H989" s="10"/>
+    </row>
+    <row r="990">
+      <c r="H990" s="10"/>
+    </row>
+    <row r="991">
+      <c r="H991" s="10"/>
+    </row>
+    <row r="992">
+      <c r="H992" s="10"/>
+    </row>
+    <row r="993">
+      <c r="H993" s="10"/>
+    </row>
+    <row r="994">
+      <c r="H994" s="10"/>
+    </row>
+    <row r="995">
+      <c r="H995" s="10"/>
+    </row>
+    <row r="996">
+      <c r="H996" s="10"/>
+    </row>
+    <row r="997">
+      <c r="H997" s="10"/>
+    </row>
+    <row r="998">
+      <c r="H998" s="10"/>
+    </row>
+    <row r="999">
+      <c r="H999" s="10"/>
+    </row>
+    <row r="1000">
+      <c r="H1000" s="10"/>
+    </row>
+    <row r="1001">
+      <c r="H1001" s="10"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
